--- a/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/Craw_ko_en/ko_en_section_notes_2024.xlsx
@@ -8,36 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/Craw_ko_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_23F921EDB74BCB26F72D4CA97D49DB5D72ADB45F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B9CD72D-4CE7-4E2F-B8FC-A012D31CF9B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_23F921ED500B483BC32C4C6775BFEA6D576BB5A5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="0" windowWidth="23865" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="124">
   <si>
     <t>ensection</t>
   </si>
   <si>
+    <t>hs</t>
+  </si>
+  <si>
     <t>section_name</t>
   </si>
   <si>
@@ -59,6 +49,69 @@
     <t>ko_general</t>
   </si>
   <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VIII</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>XII</t>
+  </si>
+  <si>
+    <t>XIII</t>
+  </si>
+  <si>
+    <t>XIV</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>XVI</t>
+  </si>
+  <si>
+    <t>XVII</t>
+  </si>
+  <si>
+    <t>XVIII</t>
+  </si>
+  <si>
+    <t>XIX</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>XXI</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -311,10 +364,10 @@
     <t>['GENERAL', 'Section Note 1.', 'This Note deals with the classification of goods put up in sets consisting of two or more separate constituents, some or all of which fall in Section VII. The Note is, however, limited to sets of which the constituents are intended to be mixed together to obtain a product of Section VI or VII. Such sets are to be classified in the heading appropriate to that product provided the constituents meet conditions (a) to (c) of the Note.', 'It should be noted that goods put up in sets consisting of two or more separate constituents, some or all of which fall in Section VII, intended to be used successively without prior mixing, are not covered by Note 1 to this Section. Such goods put up for retail sale are to be classified by application of the General Interpretative Rules (generally Rule 3 (b)); in the case of those not put up for retail sale the constituents are to be classified separately.', 'Section Note 2.', 'Goods of heading 39.18 (floor coverings and wall or ceiling coverings of plastics) and heading 39.19 (self adhesive plates, etc., of plastics), even if printed with motifs, characters or pictorial representations, which are not merely subsidiary to the primary use of the goods, do not fall in Chapter 49 but remain classified in the above mentioned headings. However, all other goods of plastics or rubber of the kind described in this Section fall in Chapter 49 if the printing on them is not merely subsidiary to their primary use, and the plastics or rubber serves only as a medium for the printing.']</t>
   </si>
   <si>
-    <t>['GENERAL', 'In general, Section XI covers raw materials of the textile industry (silk, wool, cotton, man made fibres, etc.), semi manufactured products (such as yarns and woven fabrics) and the made up articles made from those products. However, it excludes a certain number of materials and products such as those mentioned in Note 1 to Section XI, the Notes to certain Chapters or in the following Explanatory Notes on headings in the Section. In particular, the following are not classified in Section XI :', '(a) Human hair and articles thereof (generally heading 05.01, 67.03 or 67.04), except filtering or straining cloth of a kind used in oil presses or the like (heading 59.11).', '(b) Asbestos fibres and articles (yarns, fabrics, clothing, etc.) of asbestos (heading 25.24, 68.12 or 68.13).', '(c) Carbon fibres and other non metallic mineral fibres (e.g., silicon carbide, rock wool) and articles of such fibres (Chapter 68).', '(d) Glass fibres, yarns, fabrics, and articles made therefrom, and composite articles of glass fibres and textile fibres having the character of articles of glass fibres (Chapter 70), other than embroidery with glass thread on a visible ground of fabric.', 'Section XI is divided into fourteen Chapters which may be considered in two parts, the first (Chapters 50 to 55) being divided according to the nature of the textile material, and the second (Chapters 56 to 63), with the exception of headings 58.09 and 59.02, covering products without distinction, at heading level, as to the nature of the textile.', '(I) CHAPTERS 50 TO 55', 'Chapters 50 to 55 each deal with one or more textile materials, alone or mixed, at their various stages of manufacture, up to and including their conversion into woven fabrics as described in Part (I) (C) below. They cover, in most cases, the raw material, recovered waste (including garnetted stock but not unpulled rags), carded or combed fibres in the form of slivers, rovings, etc., yarns and woven fabrics.', '(A) Classification of products composed of mixed textile materials', '(See Note 2 to Section XI)', 'A textile product classifiable in any heading in Chapters 50 to 55 (waste, yarn, woven fabric, etc.) or in heading 58.09 or 59.02 and of a mixture of two or more different textile materials is to be classified as if consisting wholly of that one textile material which predominates by weight over any other single textile material.', 'When no one textile material predominates by weight, the goods are to be classified as if consisting wholly of that one textile material which is covered by the heading which occurs last in numerical order among those which equally merit consideration.', 'The textile materials may be mixed :', '  prior to or during spinning;', '  during twisting;', '  during weaving.', 'In the case of products (other than those of heading 58.11) consisting of two or more textile fabrics of different composition assembled in layers by sewing, gumming, etc., classification is determined in accordance with Interpretative Rule 3. Accordingly, Note 2 to Section XI applies only where it is necessary to determine the textile material which predominates by weight in the fabric taken into consideration for the classification of the product as a whole.', 'Similarly, the provisions of Note 2 to Section XI apply to mixed products composed of textile and non textile materials only if, by virtue of the General Rules for the Interpretation of the Nomenclature, they are classified as textile products.', 'It should be noted that, for the application of Note 2 to the Section :', '(1) When a Chapter or a heading refers to products composed of textile materials of different kinds, those materials are aggregated together for the purpose of classifying similar products containing those materials mixed with others; the choice of appropriate heading shall be effected by determining first the Chapter and then the applicable heading within that Chapter, disregarding any materials not classified in that Chapter.', ' Examples :', ' (a) A woven fabric composed of :', ' 40 % by weight of synthetic staple fibres,', ' 35 % by weight of combed wool, and', ' 25 % by weight of combed fine animal hair', ' is not classified in heading 55.15 (other woven fabrics of synthetic staple fibres) but comes under heading 51.12 (woven fabrics of combed wool or of combed fine animal hair), since the proportions of wool and of fine animal hair must, in this case, be taken in the aggregate.', ' (b) A woven fabric weighing 210 g/m² composed of :', ' 40 % by weight of cotton,', ' 30 % by weight of artificial staple fibres, and', ' 30 % by weight of synthetic staple fibres', ' is not classified in heading 52.11 (woven fabrics of cotton, containing less than 85 % by weight of cotton, mixed mainly or solely with man made fibres, weighing more than 200 g/m²), or in heading 55.14 (woven fabrics of synthetic staple fibres, containing less than 85 % by weight of such fibres, mixed mainly or solely with cotton, of a weight exceeding 170 g/m²), but comes under heading 55.16 (woven fabrics of artificial staple fibres). This classification is reached by determining first the relevant Chapter (in this case Chapter 55 since the proportion of synthetic staple fibres and artificial staple fibres must, in this case, be taken in the aggregate) and then the applicable heading within that Chapter which, in this example, is heading 55.16, the heading which occurs last in numerical order among those which equally merit consideration.', ' (c) A woven fabric composed of :', ' 35 % by weight of flax,', ' 25 % by weight of jute,', ' 40 % by weight of cotton', ' is not classified in heading 52.12 (other woven fabrics of cotton) but in heading 53.09 (woven fabrics of flax). This classification is reached by determining first the relevant Chapter (in this case Chapter 53 since the proportions of flax and jute must be taken in the aggregate) and then the applicable heading within that Chapter which, in this example, is heading 53.09 since flax predominates over jute, the cotton content being disregarded in accordance with Section Note 2 (B) (b).', '(2) Gimped horsehair yarn and metallised yarn are treated as single textile materials, and their weight is taken as the aggregate of the weights of the components.', '(3) In classifying woven fabrics, metal thread is treated as a textile material.', '(4) When both Chapters 54 and 55 are involved with any other Chapter, Chapters 54 and 55 are to be treated as a single Chapter.', ' Example :', ' A woven fabric composed of :', ' 35 % by weight of synthetic filaments,', ' 25 % by weight of synthetic staple fibres, and', ' 40 % by weight of combed wool', 'is not classified in heading 51.12 (woven fabrics of combed wool) but comes under heading 54.07 (woven fabrics of synthetic filament yarn), since the proportions of synthetic filaments and synthetic staple fibres must, in this case, be taken in the aggregate.', '(5) Sizings or dressings (e.g., weighting (loading) in the case of silk) and also products for impregnating, coating, covering or sheathing, incorporated in textile fibres are not deemed to be non textile materials; in other words, the weight of the textile fibres is calculated on the basis of their weight in the state in which they are presented.', 'When deciding if an admixture is mainly a particular textile material, regard is to be taken to the textile material which predominates by weight over any other single textile material in the admixture.', ' Example :', ' A woven fabric weighing not more than 200 g/m² and consisting of :', ' 55 % by weight of cotton,', ' 22 % by weight of man made fibres,', ' 21 % by weight of wool, and', '   2 % by weight of silk', 'does not fall in heading 52.12 (other woven fabrics of cotton), but in heading 52.10 (woven fabrics of cotton, containing less than 85 % by weight of cotton, mixed mainly or solely with man made fibres, weighing not more than 200 g/m²).', '(B) Yarns', '(1) General.', 'Textile yarns may be single, multiple (folded) or cabled. For the purposes of the Nomenclature :', ' (i) Single yarns means yarns composed either of  :', ' (a) Staple fibres, usually held together by twist (spun yarns); or of', ' (b) One filament (monofilament) of headings 54.02 to 54.05, or two or more filaments (multifilament) of heading 54.02 or 54.03, held together, with or without twist (continuous yarns).', ' (ii) Multiple (folded) yarns means yarns formed from two or more single yarns, including those obtained from monofilaments of heading 54.04 or 54.05 (twofold, threefold, fourfold, etc. yarns) twisted together in one folding operation. However, yarns composed solely of monofilaments of heading 54.02 or 54.03, held together by twist, are not to be regarded as multiple (folded) yarns.', '  The ply (“fold”) of a multiple (folded) yarn means each of the single yarns with which it is formed.', ' (iii) Cabled yarns means yarns formed from two or more yarns, at least one of which is multiple (folded), twisted together in one or more folding operations.', '  The ply (“fold”) of a cabled yarn means each of the single or multiple (folded) yarns with which it is formed.', 'The above yarns are sometimes called multiple wound (assembled) yarns when they are obtained by juxtaposition of two or more single, multiple (folded) or cabled yarns. These are to be regarded as single, multiple (folded) or cabled yarns according to the type of the yarns of which they are composed.', 'Single, multiple (folded) or cabled yarns may have loops or slubs at intervals (bouclé or looped, slub or flammé yarn). They may also be composed of two or more yarns one of which is folded back on itself at intervals to give the effect of a loop or swelling.', 'Polished or glazed yarns are those which have been treated with preparations based on natural substances (wax, paraffin, etc.) or on synthetic substances (acrylic resins in particular). They are then made glossy by means of polishing rollers.', 'Yarns are designated according to their measurement. Various systems of numbering or counting are still in use. The Nomenclature, however, uses the universal “Tex” system, which is a unit for expressing linear density, equal to the weight in grams of one kilometre of yarn, filament, fibre, or other textile strand. Decitex is 0.1 Tex. The following formula for the conversion of metric numbers into decitex numbers is applied :', '&lt;a href="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_01.jpg" rel="lightbox" title="usa_t01_hs11_01.jpg"&gt; &lt;img src="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_01.jpg" alt="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_01.jpg"style="width: 530px; margin: 0px;"&gt; &lt;/a&gt;', 'Yarns may be unbleached, scoured, bleached, creamed, dyed, printed, marled, etc. They may also have been gassed (i.e., singed to remove fibres which give them a hairy appearance), mercerised (i.e., treated under tension with sodium hydroxide), oiled, etc.', 'However, Chapters 50 to 55 do not include :', ' (a) Rubber thread, textile covered, and textile yarns impregnated (including dipped), coated, covered or sheathed with rubber or plastics, of heading 56.04.', ' (b) Metallised yarn (heading 56.05).', ' (c) Gimped yarn, chenille yarn and loop wale yarn (heading 56.06).', ' (d) Braided textile yarns (heading 56.07 or 58.08, as the case may be).', ' (e) Textile yarns reinforced with metal thread (heading 56.07).', ' (f) Yarns, monofilaments or textile fibres laid parallel and bonded with an adhesive (bolduc) (heading 58.06).', ' (g) Textile yarns laid parallel and agglomerated with rubber of heading 59.06.', '(2) Distinction between single, multiple (folded) or cabled yarns of Chapters 50 to 55, twine, cordage, rope or cables of heading 56.07 and braids of heading 58.08.', '(See Note 3 to Section XI)', 'Chapters 50 to 55 do not cover all yarns. Yarns are classified according to their characteristics (measurement, whether or not polished or glazed, number of plies) in those headings of Chapters 50 to 55 relating to yarns, as twine, cordage, rope or cables under heading 56.07, or as braids under heading 58.08. Table I below shows the correct classification in each individual case :', 'TABLE I', 'Classification of yarns, twine, cordage, rope and cables of textile material.', '&lt;a href="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_02.jpg" rel="lightbox" title="usa_t01_hs11_02.jpg"&gt; &lt;img src="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_02.jpg" alt="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_02.jpg"style="width: 530px; margin: 0px;"&gt; &lt;/a&gt;', '&lt;a href="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_03.jpg" rel="lightbox" title="usa_t01_hs11_03.jpg"&gt; &lt;img src="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_03.jpg" alt="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_03.jpg"style="width: 530px; margin: 0px;"&gt; &lt;/a&gt;', 'Footnotes.', ' () References to the various textiles materials apply also to such mixtures as are classified therewith under the provisions of Note 2 to Section XI (see Part (I) (A) of this General Explanatory Note).', ' () Silk worm gut of heading 50.06, multifilament yarn without twist or with a twist of less than 5 turns per metre, and monofilament, of Chapter 54, and man made filament tow of Chapter 55 do not in any circumstances fall in heading 56.07.', '(3) Yarns put up for retail sale.', '(See Note 4 to Section XI)', 'Certain headings of Chapters 50, 51, 52, 54 and 55 make provision for textile yarns put up for retail sale. To be classified in those headings yarns must meet the criteria set out in Table II below.', 'However, the following yarns are never deemed to be put up for retail sale :', ' (a) Single yarn of silk, waste silk, cotton or man made fibres, however put up.', ' (b) Single yarn of wool or of fine animal hair, bleached, dyed or printed, measuring 5,000 decitex or less, however put up.', ' (c) Multiple (folded) or cabled yarn of silk or waste silk, unbleached, however put up.', ' (d) Multiple (folded) or cabled yarn of cotton or man made fibres, unbleached, in hanks or skeins.', ' (e) Multiple (folded) or cabled yarn of silk or waste silk, bleached, dyed or printed, measuring 133 decitex or less.', ' (f) Single, multiple (folded) or cabled yarn of any textile material, in cross reeled hanks or skeins.()', ' (g) Single, multiple (folded) or cabled yarn of any textile material, put up on supports (e.g., cops, twisting mill tubes, pirns, conical bobbins or spindles) or in some other manner (for example, in the form of cocoons for embroidery looms, cakes made by centrifugal spinning) indicating its use in the textile industry.', '    ', ' Footnote', ' () Cross reeling indicates that in building up the hank the thread crosses diagonally as the hank is being wound, preventing the hank from being split. Cross reeling is the method usually adopted when the hanks are for dyeing.', '&lt;a href="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_04.jpg" rel="lightbox" title="usa_t01_hs11_04.jpg"&gt; &lt;img src="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_04.jpg" alt="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_04.jpg"style="width: 530px; margin: 0px;"&gt; &lt;/a&gt;', 'TABLE II', 'Yarns put up for retail sale (subject to the above mentioned exceptions).', '&lt;a href="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_05.jpg" rel="lightbox" title="usa_t01_hs11_05.jpg"&gt; &lt;img src="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_05.jpg" alt="/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_05.jpg"style="width: 530px; margin: 0px;"&gt; &lt;/a&gt;', 'Footnotes', ' () References to the various textile materials apply also to such mixtures as are classified therewith under the provisions of Note 2 to Section XI (see Part (I) (A) of this General Explanatory Note).', ' () The hanks or skeins comprising several smaller hanks or skeins separated by one or more dividing threads are formed of one continuous length of yarn which, on being cut, allows the component hanks or skeins to be readily separated.  One or more dividing threads pass between the skeins and keep them separate from each other.  These hanks and skeins are often wrapped round with paper bands.  Other hanks and skeins of one continuous length, or yarn with dividing threads which do not separate the main hank or skein into smaller hanks or skeins of uniform weight, but are simply intended to prevent tangling during processing (e.g., dyeing), are not regarded as hanks or skeins comprising several smaller hanks or skeins separated by one or more dividing threads and are not regarded as put up for retail sale.', '(4) Sewing thread.', '(See Note 5 to Section XI)', 'For the purposes of headings 52.04, 54.01 and 55.08 the expression “sewing thread” means multiple (folded) or cabled yarn :', ' (a) Put up on supports (for example, reels, tubes) of a weight (including support) not exceeding 1,000 g;', ' (b) Dressed for use as sewing thread; and', ' (c) With a final “Z” twist.', 'The term “dressed” mea']</t>
-  </si>
-  <si>
-    <t>['GENERAL', 'This Section covers base metals (including those in a chemically pure state) and many articles thereof. A list of goods of base metal not covered by this Section is reproduced at the end of this Explanatory Note. The Section also includes native metals separated from their gangues, and the mattes of copper, nickel or cobalt. Metallic ores and native metals still enclosed in their gangues are excluded (headings 26.01 to 26.17).', 'In accordance with Note 3 to this Section, throughout the Nomenclature, the expression “base metals” means : iron and steel, copper, nickel, aluminium, lead, zinc, tin, tungsten (wolfram), molybdenum, tantalum, magnesium, cobalt, bismuth, cadmium, titanium, zirconium, antimony, manganese, beryllium, chromium, germanium, vanadium, gallium, hafnium, indium, niobium (columbium), rhenium and thallium.', 'Each of the Chapters 72 to 76 and 78 to 81 covers particular unwrought base metals and products of those metals such as bars, rods, wire or sheets, as well as articles thereof, except certain specified articles of base metal which, without regard to the nature of the constituent metal, are classified in Chapter 82 or 83, these Chapters being limited to the specified articles.', '(A) ALLOYS OF BASE METALS', 'In accordance with Note 6 to this Section, except where the context otherwise requires (e.g., in the case of steel alloys), any reference to a base metal in Chapters 72 to 76 and 78 to 81 or elsewhere in the Nomenclature also includes the alloys of that metal. Similarly, any reference in Chapter 82 or 83 or elsewhere to “base metal” includes alloys classified as alloys of base metals.', 'Under Note 5 to Chapter 71 and Note 5 to this Section alloys of base metals are classified as follows :', '(1) Alloys of base metals with precious metals.', 'These alloys are classified as base metals provided that no one of the precious metals (silver, gold and platinum) constitutes as much as 2 % by weight of the alloy. Other alloys of base metals with precious metals are classified in Chapter 71.', '(2) Alloys of base metals.', 'These alloys are classified with the metal which predominates by weight, with the exception of ferro alloys (see the Explanatory Note to heading 72.02) and master alloys of copper (see the Explanatory Note to heading 74.05).', '(3) Alloys of base metals of this Section with non-metals or with the metals of heading 28.05.', 'These are classified as alloys of base metals of this Section provided the total weight of the base metals of this Section equals or exceeds the total weight of the other elements present. If this is not the case, the alloys are generally classified in heading 38.24.', '(4) Sintered mixtures, heterogeneous intimate mixtures obtained by melting (other than cermets) and intermetallic compounds.', 'Sintered mixtures of metal powders and heterogeneous intimate mixtures obtained by melting (other than cermets) are treated as alloys. The latter type of mixture includes in particular ingots of variable composition obtained by melting down scrap metal.', 'The classification of mixtures of metal powders which have not been sintered is, however, governed by Note 7 to this Section (composite articles   see Part (B) below).', 'Intermetallic compounds composed of two or more base metals are also treated as alloys. The essential difference between intermetallic compounds and alloys is that the arrangement of the atoms of different kinds in the crystal lattice of an intermetallic compound is orderly, whereas in an alloy it is disorderly.', '(B) ARTICLES OF BASE METALS', 'In accordance with Section Note 7, base metal articles containing two or more base metals are classified as articles of that metal which predominates by weight over each of the other metals, except where the headings otherwise require (e.g., copper headed iron or steel nails are classified in heading 74.15 even if the copper is not the major constituent). The same rule applies to articles made partly of non metals, provided that, under the General Interpretative Rules, the base metal gives them their essential character.', 'In calculating the proportions of the metals present for the purposes of this rule, it should be noted that :', '(1) All varieties of iron and steel are regarded as the same metal.', '(2) An alloy is regarded as being entirely composed of that metal as an alloy of which it is classified (e.g., for these purposes, a part made of brass would be treated as if it were wholly of copper).', '(3) A cermet of heading 81.13 is regarded as a single base metal.', '(C) PARTS OF ARTICLES', 'In general, identifiable parts of articles are classified as such parts in their appropriate headings in the Nomenclature.', 'However, parts of general use (as defined in Note 2 to this Section) presented separately are not considered as parts of articles, but are classified in the headings of this Section appropriate to them. This would apply, for example, in the case of bolts specialised for central heating radiators or springs specialised for motor cars. The bolts would be classified in heading 73.18 (as bolts) and not in heading 73.22 (as parts of central heating radiators). The springs would be classified in heading 73.20 (as springs) and not in heading 87.08 (as parts of motor vehicles).', '    ', 'It should be noted that watch or clock springs are excluded by Note 2 (b) to this Section and fall in heading 91.14.', 'In addition to the goods listed in Note 1 to this Section, the following are also excluded :', '(a) Amalgams of base metals (heading 28.53).', '(b) Colloidal suspensions of base metals (generally heading 30.03 or 30.04).', '(c) Dental cements and other dental fillings (heading 30.06).', '(d) Sensitised photographic plates of metal for, e.g., photo engraving (heading 37.01).', '(e) Flash light materials for photographic uses of heading 37.07.', '(f) Metallised yarn (heading 56.05); woven fabrics of such yarn or of metal thread, of a kind used in articles of apparel, as furnishing fabrics or the like (heading 58.09).', '(g) Embroidery and other goods described in Section XI, of metal thread.', '(h) Parts of footwear, other than those mentioned in Note 2 to Chapter 64 (in particular, protectors, eyelets, hooks and buckles) (heading 64.06).', '(ij) Coin (heading 71.18).', '(k) Waste and scrap of primary cells, primary batteries and electric accumulators; spent primary cells, spent primary batteries and spent electric accumulators (heading 85.49).', '(l) Wire brushes (heading 96.03).']</t>
+    <t>['GENERAL', 'In general, Section XI covers raw materials of the textile industry (silk, wool, cotton, man made fibres, etc.), semi manufactured products (such as yarns and woven fabrics) and the made up articles made from those products. However, it excludes a certain number of materials and products such as those mentioned in Note 1 to Section XI, the Notes to certain Chapters or in the following Explanatory Notes on headings in the Section. In particular, the following are not classified in Section XI :', '(a) Human hair and articles thereof (generally heading 05.01, 67.03 or 67.04), except filtering or straining cloth of a kind used in oil presses or the like (heading 59.11).', '(b) Asbestos fibres and articles (yarns, fabrics, clothing, etc.) of asbestos (heading 25.24, 68.12 or 68.13).', '(c) Carbon fibres and other non metallic mineral fibres (e.g., silicon carbide, rock wool) and articles of such fibres (Chapter 68).', '(d) Glass fibres, yarns, fabrics, and articles made therefrom, and composite articles of glass fibres and textile fibres having the character of articles of glass fibres (Chapter 70), other than embroidery with glass thread on a visible ground of fabric.', 'Section XI is divided into fourteen Chapters which may be considered in two parts, the first (Chapters 50 to 55) being divided according to the nature of the textile material, and the second (Chapters 56 to 63), with the exception of headings 58.09 and 59.02, covering products without distinction, at heading level, as to the nature of the textile.', '(I) CHAPTERS 50 TO 55', 'Chapters 50 to 55 each deal with one or more textile materials, alone or mixed, at their various stages of manufacture, up to and including their conversion into woven fabrics as described in Part (I) (C) below. They cover, in most cases, the raw material, recovered waste (including garnetted stock but not unpulled rags), carded or combed fibres in the form of slivers, rovings, etc., yarns and woven fabrics.', '(A) Classification of products composed of mixed textile materials', '(See Note 2 to Section XI)', 'A textile product classifiable in any heading in Chapters 50 to 55 (waste, yarn, woven fabric, etc.) or in heading 58.09 or 59.02 and of a mixture of two or more different textile materials is to be classified as if consisting wholly of that one textile material which predominates by weight over any other single textile material.', 'When no one textile material predominates by weight, the goods are to be classified as if consisting wholly of that one textile material which is covered by the heading which occurs last in numerical order among those which equally merit consideration.', 'The textile materials may be mixed :', '  prior to or during spinning;', '  during twisting;', '  during weaving.', 'In the case of products (other than those of heading 58.11) consisting of two or more textile fabrics of different composition assembled in layers by sewing, gumming, etc., classification is determined in accordance with Interpretative Rule 3. Accordingly, Note 2 to Section XI applies only where it is necessary to determine the textile material which predominates by weight in the fabric taken into consideration for the classification of the product as a whole.', 'Similarly, the provisions of Note 2 to Section XI apply to mixed products composed of textile and non textile materials only if, by virtue of the General Rules for the Interpretation of the Nomenclature, they are classified as textile products.', 'It should be noted that, for the application of Note 2 to the Section :', '(1) When a Chapter or a heading refers to products composed of textile materials of different kinds, those materials are aggregated together for the purpose of classifying similar products containing those materials mixed with others; the choice of appropriate heading shall be effected by determining first the Chapter and then the applicable heading within that Chapter, disregarding any materials not classified in that Chapter.', ' Examples :', ' (a) A woven fabric composed of :', ' 40 % by weight of synthetic staple fibres,', ' 35 % by weight of combed wool, and', ' 25 % by weight of combed fine animal hair', ' is not classified in heading 55.15 (other woven fabrics of synthetic staple fibres) but comes under heading 51.12 (woven fabrics of combed wool or of combed fine animal hair), since the proportions of wool and of fine animal hair must, in this case, be taken in the aggregate.', ' (b) A woven fabric weighing 210 g/m² composed of :', ' 40 % by weight of cotton,', ' 30 % by weight of artificial staple fibres, and', ' 30 % by weight of synthetic staple fibres', ' is not classified in heading 52.11 (woven fabrics of cotton, containing less than 85 % by weight of cotton, mixed mainly or solely with man made fibres, weighing more than 200 g/m²), or in heading 55.14 (woven fabrics of synthetic staple fibres, containing less than 85 % by weight of such fibres, mixed mainly or solely with cotton, of a weight exceeding 170 g/m²), but comes under heading 55.16 (woven fabrics of artificial staple fibres). This classification is reached by determining first the relevant Chapter (in this case Chapter 55 since the proportion of synthetic staple fibres and artificial staple fibres must, in this case, be taken in the aggregate) and then the applicable heading within that Chapter which, in this example, is heading 55.16, the heading which occurs last in numerical order among those which equally merit consideration.', ' (c) A woven fabric composed of :', ' 35 % by weight of flax,', ' 25 % by weight of jute,', ' 40 % by weight of cotton', ' is not classified in heading 52.12 (other woven fabrics of cotton) but in heading 53.09 (woven fabrics of flax). This classification is reached by determining first the relevant Chapter (in this case Chapter 53 since the proportions of flax and jute must be taken in the aggregate) and then the applicable heading within that Chapter which, in this example, is heading 53.09 since flax predominates over jute, the cotton content being disregarded in accordance with Section Note 2 (B) (b).', '(2) Gimped horsehair yarn and metallised yarn are treated as single textile materials, and their weight is taken as the aggregate of the weights of the components.', '(3) In classifying woven fabrics, metal thread is treated as a textile material.', '(4) When both Chapters 54 and 55 are involved with any other Chapter, Chapters 54 and 55 are to be treated as a single Chapter.', ' Example :', ' A woven fabric composed of :', ' 35 % by weight of synthetic filaments,', ' 25 % by weight of synthetic staple fibres, and', ' 40 % by weight of combed wool', 'is not classified in heading 51.12 (woven fabrics of combed wool) but comes under heading 54.07 (woven fabrics of synthetic filament yarn), since the proportions of synthetic filaments and synthetic staple fibres must, in this case, be taken in the aggregate.', '(5) Sizings or dressings (e.g., weighting (loading) in the case of silk) and also products for impregnating, coating, covering or sheathing, incorporated in textile fibres are not deemed to be non textile materials; in other words, the weight of the textile fibres is calculated on the basis of their weight in the state in which they are presented.', 'When deciding if an admixture is mainly a particular textile material, regard is to be taken to the textile material which predominates by weight over any other single textile material in the admixture.', ' Example :', ' A woven fabric weighing not more than 200 g/m² and consisting of :', ' 55 % by weight of cotton,', ' 22 % by weight of man made fibres,', ' 21 % by weight of wool, and', '   2 % by weight of silk', 'does not fall in heading 52.12 (other woven fabrics of cotton), but in heading 52.10 (woven fabrics of cotton, containing less than 85 % by weight of cotton, mixed mainly or solely with man made fibres, weighing not more than 200 g/m²).', '(B) Yarns', '(1) General.', 'Textile yarns may be single, multiple (folded) or cabled. For the purposes of the Nomenclature :', ' (i) Single yarns means yarns composed either of  :', ' (a) Staple fibres, usually held together by twist (spun yarns); or of', ' (b) One filament (monofilament) of headings 54.02 to 54.05, or two or more filaments (multifilament) of heading 54.02 or 54.03, held together, with or without twist (continuous yarns).', ' (ii) Multiple (folded) yarns means yarns formed from two or more single yarns, including those obtained from monofilaments of heading 54.04 or 54.05 (twofold, threefold, fourfold, etc. yarns) twisted together in one folding operation. However, yarns composed solely of monofilaments of heading 54.02 or 54.03, held together by twist, are not to be regarded as multiple (folded) yarns.', '  The ply (“fold”) of a multiple (folded) yarn means each of the single yarns with which it is formed.', ' (iii) Cabled yarns means yarns formed from two or more yarns, at least one of which is multiple (folded), twisted together in one or more folding operations.', '  The ply (“fold”) of a cabled yarn means each of the single or multiple (folded) yarns with which it is formed.', 'The above yarns are sometimes called multiple wound (assembled) yarns when they are obtained by juxtaposition of two or more single, multiple (folded) or cabled yarns. These are to be regarded as single, multiple (folded) or cabled yarns according to the type of the yarns of which they are composed.', 'Single, multiple (folded) or cabled yarns may have loops or slubs at intervals (bouclé or looped, slub or flammé yarn). They may also be composed of two or more yarns one of which is folded back on itself at intervals to give the effect of a loop or swelling.', 'Polished or glazed yarns are those which have been treated with preparations based on natural substances (wax, paraffin, etc.) or on synthetic substances (acrylic resins in particular). They are then made glossy by means of polishing rollers.', 'Yarns are designated according to their measurement. Various systems of numbering or counting are still in use. The Nomenclature, however, uses the universal “Tex” system, which is a unit for expressing linear density, equal to the weight in grams of one kilometre of yarn, filament, fibre, or other textile strand. Decitex is 0.1 Tex. The following formula for the conversion of metric numbers into decitex numbers is applied :', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_01.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_01.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', 'Yarns may be unbleached, scoured, bleached, creamed, dyed, printed, marled, etc. They may also have been gassed (i.e., singed to remove fibres which give them a hairy appearance), mercerised (i.e., treated under tension with sodium hydroxide), oiled, etc.', 'However, Chapters 50 to 55 do not include :', ' (a) Rubber thread, textile covered, and textile yarns impregnated (including dipped), coated, covered or sheathed with rubber or plastics, of heading 56.04.', ' (b) Metallised yarn (heading 56.05).', ' (c) Gimped yarn, chenille yarn and loop wale yarn (heading 56.06).', ' (d) Braided textile yarns (heading 56.07 or 58.08, as the case may be).', ' (e) Textile yarns reinforced with metal thread (heading 56.07).', ' (f) Yarns, monofilaments or textile fibres laid parallel and bonded with an adhesive (bolduc) (heading 58.06).', ' (g) Textile yarns laid parallel and agglomerated with rubber of heading 59.06.', '(2) Distinction between single, multiple (folded) or cabled yarns of Chapters 50 to 55, twine, cordage, rope or cables of heading 56.07 and braids of heading 58.08.', '(See Note 3 to Section XI)', 'Chapters 50 to 55 do not cover all yarns. Yarns are classified according to their characteristics (measurement, whether or not polished or glazed, number of plies) in those headings of Chapters 50 to 55 relating to yarns, as twine, cordage, rope or cables under heading 56.07, or as braids under heading 58.08. Table I below shows the correct classification in each individual case :', 'TABLE I', 'Classification of yarns, twine, cordage, rope and cables of textile material.', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_02.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_02.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_03.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_03.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', 'Footnotes.', ' () References to the various textiles materials apply also to such mixtures as are classified therewith under the provisions of Note 2 to Section XI (see Part (I) (A) of this General Explanatory Note).', ' () Silk worm gut of heading 50.06, multifilament yarn without twist or with a twist of less than 5 turns per metre, and monofilament, of Chapter 54, and man made filament tow of Chapter 55 do not in any circumstances fall in heading 56.07.', '(3) Yarns put up for retail sale.', '(See Note 4 to Section XI)', 'Certain headings of Chapters 50, 51, 52, 54 and 55 make provision for textile yarns put up for retail sale. To be classified in those headings yarns must meet the criteria set out in Table II below.', 'However, the following yarns are never deemed to be put up for retail sale :', ' (a) Single yarn of silk, waste silk, cotton or man made fibres, however put up.', ' (b) Single yarn of wool or of fine animal hair, bleached, dyed or printed, measuring 5,000 decitex or less, however put up.', ' (c) Multiple (folded) or cabled yarn of silk or waste silk, unbleached, however put up.', ' (d) Multiple (folded) or cabled yarn of cotton or man made fibres, unbleached, in hanks or skeins.', ' (e) Multiple (folded) or cabled yarn of silk or waste silk, bleached, dyed or printed, measuring 133 decitex or less.', ' (f) Single, multiple (folded) or cabled yarn of any textile material, in cross reeled hanks or skeins.()', ' (g) Single, multiple (folded) or cabled yarn of any textile material, put up on supports (e.g., cops, twisting mill tubes, pirns, conical bobbins or spindles) or in some other manner (for example, in the form of cocoons for embroidery looms, cakes made by centrifugal spinning) indicating its use in the textile industry.', ' ', ' Footnote', ' () Cross reeling indicates that in building up the hank the thread crosses diagonally as the hank is being wound, preventing the hank from being split. Cross reeling is the method usually adopted when the hanks are for dyeing.', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_04.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_04.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', 'TABLE II', 'Yarns put up for retail sale (subject to the above mentioned exceptions).', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_05.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/usa/t01/usa_t01_hs11_05.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', 'Footnotes', ' () References to the various textile materials apply also to such mixtures as are classified therewith under the provisions of Note 2 to Section XI (see Part (I) (A) of this General Explanatory Note).', ' () The hanks or skeins comprising several smaller hanks or skeins separated by one or more dividing threads are formed of one continuous length of yarn which, on being cut, allows the component hanks or skeins to be readily separated.  One or more dividing threads pass between the skeins and keep them separate from each other.  These hanks and skeins are often wrapped round with paper bands.  Other hanks and skeins of one continuous length, or yarn with dividing threads which do not separate the main hank or skein into smaller hanks or skeins of uniform weight, but are simply intended to prevent tangling during processing (e.g., dyeing), are not regarded as hanks or skeins comprising several smaller hanks or skeins separated by one or more dividing threads and are not regarded as put up for retail sale.', '(4) Sewing thread.', '(See Note 5 to Section XI)', 'For the purposes of headings 52.04, 54.01 and 55.08 the expression “sewing thread” means multiple (folded) or cabled yarn :', ' (a) Put up on supports (for example, reels, tubes) of a weight (including support) not exceeding 1,000 g;', ' (b) Dressed for use as sewing thread; and', ' (c) With a final “Z” twist.', 'The term “dressed” mea']</t>
+  </si>
+  <si>
+    <t>['GENERAL', 'This Section covers base metals (including those in a chemically pure state) and many articles thereof. A list of goods of base metal not covered by this Section is reproduced at the end of this Explanatory Note. The Section also includes native metals separated from their gangues, and the mattes of copper, nickel or cobalt. Metallic ores and native metals still enclosed in their gangues are excluded (headings 26.01 to 26.17).', 'In accordance with Note 3 to this Section, throughout the Nomenclature, the expression “base metals” means : iron and steel, copper, nickel, aluminium, lead, zinc, tin, tungsten (wolfram), molybdenum, tantalum, magnesium, cobalt, bismuth, cadmium, titanium, zirconium, antimony, manganese, beryllium, chromium, germanium, vanadium, gallium, hafnium, indium, niobium (columbium), rhenium and thallium.', 'Each of the Chapters 72 to 76 and 78 to 81 covers particular unwrought base metals and products of those metals such as bars, rods, wire or sheets, as well as articles thereof, except certain specified articles of base metal which, without regard to the nature of the constituent metal, are classified in Chapter 82 or 83, these Chapters being limited to the specified articles.', '(A) ALLOYS OF BASE METALS', 'In accordance with Note 6 to this Section, except where the context otherwise requires (e.g., in the case of steel alloys), any reference to a base metal in Chapters 72 to 76 and 78 to 81 or elsewhere in the Nomenclature also includes the alloys of that metal. Similarly, any reference in Chapter 82 or 83 or elsewhere to “base metal” includes alloys classified as alloys of base metals.', 'Under Note 5 to Chapter 71 and Note 5 to this Section alloys of base metals are classified as follows :', '(1) Alloys of base metals with precious metals.', 'These alloys are classified as base metals provided that no one of the precious metals (silver, gold and platinum) constitutes as much as 2 % by weight of the alloy. Other alloys of base metals with precious metals are classified in Chapter 71.', '(2) Alloys of base metals.', 'These alloys are classified with the metal which predominates by weight, with the exception of ferro alloys (see the Explanatory Note to heading 72.02) and master alloys of copper (see the Explanatory Note to heading 74.05).', '(3) Alloys of base metals of this Section with non-metals or with the metals of heading 28.05.', 'These are classified as alloys of base metals of this Section provided the total weight of the base metals of this Section equals or exceeds the total weight of the other elements present. If this is not the case, the alloys are generally classified in heading 38.24.', '(4) Sintered mixtures, heterogeneous intimate mixtures obtained by melting (other than cermets) and intermetallic compounds.', 'Sintered mixtures of metal powders and heterogeneous intimate mixtures obtained by melting (other than cermets) are treated as alloys. The latter type of mixture includes in particular ingots of variable composition obtained by melting down scrap metal.', 'The classification of mixtures of metal powders which have not been sintered is, however, governed by Note 7 to this Section (composite articles   see Part (B) below).', 'Intermetallic compounds composed of two or more base metals are also treated as alloys. The essential difference between intermetallic compounds and alloys is that the arrangement of the atoms of different kinds in the crystal lattice of an intermetallic compound is orderly, whereas in an alloy it is disorderly.', '(B) ARTICLES OF BASE METALS', 'In accordance with Section Note 7, base metal articles containing two or more base metals are classified as articles of that metal which predominates by weight over each of the other metals, except where the headings otherwise require (e.g., copper headed iron or steel nails are classified in heading 74.15 even if the copper is not the major constituent). The same rule applies to articles made partly of non metals, provided that, under the General Interpretative Rules, the base metal gives them their essential character.', 'In calculating the proportions of the metals present for the purposes of this rule, it should be noted that :', '(1) All varieties of iron and steel are regarded as the same metal.', '(2) An alloy is regarded as being entirely composed of that metal as an alloy of which it is classified (e.g., for these purposes, a part made of brass would be treated as if it were wholly of copper).', '(3) A cermet of heading 81.13 is regarded as a single base metal.', '(C) PARTS OF ARTICLES', 'In general, identifiable parts of articles are classified as such parts in their appropriate headings in the Nomenclature.', 'However, parts of general use (as defined in Note 2 to this Section) presented separately are not considered as parts of articles, but are classified in the headings of this Section appropriate to them. This would apply, for example, in the case of bolts specialised for central heating radiators or springs specialised for motor cars. The bolts would be classified in heading 73.18 (as bolts) and not in heading 73.22 (as parts of central heating radiators). The springs would be classified in heading 73.20 (as springs) and not in heading 87.08 (as parts of motor vehicles).', ' ', 'It should be noted that watch or clock springs are excluded by Note 2 (b) to this Section and fall in heading 91.14.', 'In addition to the goods listed in Note 1 to this Section, the following are also excluded :', '(a) Amalgams of base metals (heading 28.53).', '(b) Colloidal suspensions of base metals (generally heading 30.03 or 30.04).', '(c) Dental cements and other dental fillings (heading 30.06).', '(d) Sensitised photographic plates of metal for, e.g., photo engraving (heading 37.01).', '(e) Flash light materials for photographic uses of heading 37.07.', '(f) Metallised yarn (heading 56.05); woven fabrics of such yarn or of metal thread, of a kind used in articles of apparel, as furnishing fabrics or the like (heading 58.09).', '(g) Embroidery and other goods described in Section XI, of metal thread.', '(h) Parts of footwear, other than those mentioned in Note 2 to Chapter 64 (in particular, protectors, eyelets, hooks and buckles) (heading 64.06).', '(ij) Coin (heading 71.18).', '(k) Waste and scrap of primary cells, primary batteries and electric accumulators; spent primary cells, spent primary batteries and spent electric accumulators (heading 85.49).', '(l) Wire brushes (heading 96.03).']</t>
   </si>
   <si>
     <t>['GENERAL', '(I) GENERAL CONTENT OF THE SECTION', '(A) Subject to certain exclusions provided for in the Notes to this Section and to Chapters 84 and 85 and apart from goods covered more specifically in other Sections, this Section covers all mechanical or electrical machinery, plant, equipment, apparatus and appliances and parts thereof, together with certain apparatus and plant which is neither mechanical nor electrical (such as boilers and boiler house plant, filtering apparatus, etc.) and parts of such apparatus and plant.', 'The main exclusions from the Section are :', '(a) Spools, cops, bobbins, reels, etc., of any material (classified according to their constituent material). However, warp beams should not be regarded as bobbins, spools or similar supports and fall in heading 84.48.', '(b) Parts of general use as defined in Note 2 to Section XV, such as wire, chains, bolts, screws and springs, of iron or steel (heading 73.12, 73.15, 73.18 or 73.20) and similar articles of other base metals (Chapters 74 to 76 and 78 to 81), locks of heading 83.01, fittings and mountings for doors, windows, etc., of heading 83.02. Similar goods of plastics are also excluded from this Section and fall in Chapter 39.', '(c) Interchangeable tools of heading 82.07; other similar interchangeable tools are classified according to the constituent material of their working part (e.g., in Chapter 40 (rubber), Chapter 42 (leather), Chapter 43 (fur), Chapter 45 (cork) or Chapter 59 (textile) or in heading 68.04 (abrasive, etc.), or heading 69.09 (ceramics), etc.).', '(d) Other articles of Chapter 82 (e.g., tools, tool tips, knives and cutting blades, non electrical hair clippers, and certain mechanical domestic appliances) and articles of Chapter 83.', '(e) Articles of Section XVII.', '(f) Articles of Section XVIII.', '(g) Arms and ammunition (Chapter 93).', '(h) Machinery and apparatus having the character of toys, games or sports requisites and identifiable parts and accessories thereof (including non-electric motors and engines but excluding pumps for liquids and filtering or purifying machinery for liquids or gases, which fall in heading 84.13 or 84.21, respectively, and also excluding electric motors, electric transformers and radio remote control apparatus, which fall in heading 85.01, 85.04 or 85.26, respectively) which are suitable for use solely or principally with toys, games or sports requisites (Chapter 95).', '(ij) Brushes of a kind used as parts of machines (heading 96.03).', '(B) In general, the goods of this Section may be of any material.  In the great majority of cases they are of base metal, but the Section also covers certain machinery of other materials (e.g., pumps wholly of plastics) and parts of plastics, of wood, precious metals, etc.', 'The Section does not, however, cover :', '(a) Transmission or conveyor belts or belting, of plastics (Chapter 39); articles of unhardened vulcanised rubber (e.g., transmission or conveyor belts or belting) (heading 40.10), rubber tyres, tubes, etc. (headings 40.11 to 40.13) and washers, etc. (heading 40.16).', '(b) Articles of leather or composition leather (e.g., pickers for textile looms) (heading 42.05), or of furskin (heading 43.03).', '(c) Textile articles, e.g., transmission or conveyor belts (heading 59.10), felt pads and polishing discs (heading 59.11).', '(d) Certain ceramic goods of Chapter 69 (see General Explanatory Notes to Chapters 84 and 85).', '(e) Certain glass articles of Chapter 70 (see General Explanatory Notes to Chapters 84 and 85).', '(f) Articles wholly of precious or semi precious stones (natural, synthetic or reconstructed) (heading 71.02, 71.03, 71.04 or 71.16), except unmounted worked sapphires or diamonds for styli (heading 85.22).', '(g) Endless belts of metal wire or strip (Section XV).', '(II) PARTS', '(Section Note 2)', 'In general, parts which are suitable for use solely or principally with particular machines or apparatus (including those of heading 84.79 or heading 85.43), or with a group of machines or apparatus falling in the same heading, are classified in the same heading as those machines or apparatus subject, of course, to the exclusions mentioned in Part (I) above. Separate headings are, however, provided for :', '(A) Parts of the engines of heading 84.07 or 84.08 (heading 84.09).', '(B) Parts of the machinery of headings 84.25 to 84.30 (heading 84.31).', '(C) Parts of the textile machines of headings 84.44 to 84.47 (heading 84.48).', '(D) Parts of the machines of headings 84.56 to 84.65 (heading 84.66).', '(E)  Parts of the office machines of headings 84.69 to 84.72 (heading 84.73).', '(F)  Parts of the machines of heading 85.01 or 85.02 (heading 85.03).', '(G) Parts of apparatus of headings 85.19 or 85.21 (heading 85.22).', '(H) Parts of apparatus of headings 85.25 to 85.28 (heading 85.29).', '(IJ) Parts of apparatus of heading 85.35, 85.36 or 85.37 (heading 85.38).', 'The above rules do not apply to parts which in themselves constitute an article covered by a heading of this Section (other than headings 84.87 and 85.48); these are in all cases classified in their own appropriate heading even if specially designed to work as part of a specific machine. This applies in particular to :', '(1)  Pumps and compressors (headings 84.13 and 84.14).', '(2)  Filtering machinery and apparatus of heading 84.21.', '(3)  Lifting and handling machinery (heading 84.25, 84.26, 84.28 or 84.86).', '(4)  Taps, cocks, valves, etc. (heading 84.81).', '(5)  Ball or roller bearings, and polished steel balls of a tolerance not exceeding 1 % or 0.05 mm, whichever is less (heading 84.82).', '(6)  Transmission shafts, cranks, bearing housings, plain shaft bearings, gears and gearing (including friction gears and gear boxes and other speed changers), flywheels, pulleys and pulley blocks, clutches and shaft couplings (heading 84.83).', '(7)  Gaskets and similar joints of heading 84.84.', '(8)  Electric motors of heading 85.01.', '(9)  Electrical transformers and other machines and apparatus of heading 85.04.', '(10) Electric accumulators assembled into battery packs (heading 85.07).', '(11) Electric heating resistors (heading 85.16).', '(12) Electrical capacitors (heading 85.32).', '(13) Electrical apparatus for switching, protecting, etc., electrical circuits (switches, fuses, junction boxes, etc.) (headings 85.35 and 85.36).', '(14) Boards, panels, consoles, desks, cabinets and other apparatus for electric control or the distribution of electricity (heading 85.37).', '(15) Lamps of heading 85.39.', '(16) Valves and tubes of heading 85.40 and diodes, transistors, etc., of heading 85.41.', '(17)  Electrical carbons (e.g., arc lamp carbons, carbon electrodes and carbon brushes) (heading 85.45).', '(18) Insulators of any material (heading 85.46).', '(19) Insulating fittings for electrical machines, etc., of heading 85.47.', 'Other parts which are recognisable as such, but are not suitable for use solely or principally with a particular machine or class of machine (i.e., which may be common to a number of machines falling in different headings), are classified in heading 84.87 (if not electrical) or in heading 85.48 (if electrical), unless they are excluded by the provisions set out above.', 'The above provisions for the classification of parts do not apply to parts of the goods falling in heading 84.84 (gaskets, etc.), 85.44 (insulated wire), 85.45 (electrical carbons), 85.46 (insulators) or 85.47 (conduit tubing); in general, such parts are classified in the appropriate materials Chapter.', 'Machinery parts remain classified in this Section whether or not finished ready for use.  However, rough forgings of iron or steel are classified in heading 72.07.', '(III) ACCESSORY APPARATUS', '(See General Interpretative Rules 2 (a) and 3 (b) and Section Notes 3 and 4)', 'Accessory instruments and apparatus (e.g., manometers, thermometers, level gauges or other measuring or checking instruments, output counters, clockwork switches, control panels, automatic regulators) presented with the machine or apparatus with which they normally belong are classified with that machine or apparatus, if they are designed to measure, check, control or regulate one specific machine or apparatus (which may be a combination of machines (see Part VI below) or a functional unit (see Part VII below)). However, accessory instruments and apparatus designed to measure, check, control or regulate several machines (whether or not of the same type) fall in their own appropriate heading.', '(IV) INCOMPLETE MACHINES', '(See General Interpretative Rule 2 (a))', 'Throughout the Section any reference to a machine or apparatus covers not only the complete machine, but also an incomplete machine (i.e., an assembly of parts so far advanced that it already has the main essential features of the complete machine). Thus a machine lacking only a flywheel, a bed plate, calender rolls, tool holders, etc., is classified in the same heading as the machine, and not in any separate heading provided for parts. Similarly a machine or apparatus normally incorporating an electric motor (e.g., electro mechanical hand tools of heading 84.67) is classified in the same heading as the corresponding complete machine even if presented without that motor', '(V) UNASSEMBLED MACHINES', '(See General Interpretative Rule 2 (a))', 'For convenience of transport many machines and apparatus are transported in an unassembled state. Although in effect the goods are then a collection of parts, they are classified as being the machine in question and not in any separate heading for parts. The same applies to an incomplete machine having the features of the complete machine (see Part (IV) above), presented unassembled (see also in this connection the General Explanatory Notes to Chapters 84 and 85). However, unassembled components in excess of the number required for a complete machine or for an incomplete machine having the characteristics of a complete machine, are classified in their own appropriate heading.', '(VI) MULTI FUNCTION MACHINES', 'AND COMPOSITE MACHINES', '(Section Note 3)', 'In general, multi-function machines are classified according to the principal function of the machine.', 'Multi-function machines are, for example, machine-tools for working metal using interchangeable tools, which enable them to carry out different machining operations (e.g., milling, boring, lapping).', 'Where it is not possible to determine the principal function, and where, as provided in Note 3 to the Section, the context does not otherwise require, it is necessary to apply General Interpretative Rule 3 (c); such is the case, for example, in respect of multi function machines potentially classifiable in several of the headings 84.25 to 84.30, in several of the headings 84.58 to 84.63 or in several of the headings 84.69 to 84.72.', 'Composite machines consisting of two or more machines or appliances of different kinds, fitted together to form a whole, consecutively or simultaneously performing separate functions which are generally complementary and are described in different headings of Section XVI, are also classified according to the principal function of the composite machine.', 'The following are examples of such composite machines: printing machines with a subsidiary machine for holding the paper (heading 84.43); a cardboard box making machine combined with an auxiliary machine for printing a name or simple design (heading 84.41); industrial furnaces combined with lifting or handling machinery (heading 84.17 or 85.14); cigarette making machinery combined with subsidiary packaging machinery (heading 84.78).', 'For the purposes of the above provisions, machines of different kinds are taken to be fitted together to form a whole when incorporated one in the other or mounted one on the other, or mounted on a common base or frame or in a common housing.', 'Assemblies of machines should not be taken to be fitted together to form a whole unless the machines are designed to be permanently attached either to each other or to a common base, frame, housing, etc. This excludes assemblies which are of a temporary nature or are not normally built as a composite machine.', 'The bases, frames or housings may be provided with wheels so that the composite machine can be moved about as required during use, provided it does not thereby acquire the character of an article (e.g., a vehicle) more specifically covered by a particular heading of the Nomenclature.', 'Floors, concrete bases, walls, partitions, ceilings, etc., even if specially fitted out to accommodate machines or appliances, should not be regarded as a common base joining such machines or appliances to form a whole.', 'Note 3 to Section XVI need not be invoked when the composite machine is covered as such by a particular heading, for example, some types of air conditioning machines (heading 84.15).', 'It should be noted that multi purpose machines (e.g., machine tools capable of working metals and other materials or eyeletting machines used equally well in the paper, textile, leather, plastics, etc., industries) are to be classified according to the provisions of Note 8 to Chapter 84.', '(VII) FUNCTIONAL UNITS', '(Section Note 4)', 'This Note applies when a machine (including a combination of machines) consists of separate components which are intended to contribute together to a clearly defined function covered by one of the headings in Chapter 84 or, more frequently, Chapter 85. The whole then falls to be classified in the heading appropriate to that function, whether the various components (for convenience or other reasons) remain separate or are interconnected by piping (carrying air, compressed gas, oil, etc.), by devices used to transmit power, by electric cables or by other devices.', 'For the purposes of this Note, the expression “intended to contribute together to a clearly defined function” covers only machines and combinations of machines essential to the performance of the function specific to the functional unit as a whole, and thus excludes machines or appliances fulfilling auxiliary functions and which do not contribute to the function of the whole.', 'The following are examples of functional units of this type within the meaning of Note 4 to this Section :', '(1)  Hydraulic systems consisting of a hydraulic power unit (comprising essentially a hydraulic pump, an electric motor, control valves and an oil tank), hydraulic cylinders and the pipes or hoses needed to connect the cylinders to the hydraulic power unit (heading 84.12). ', '(2)  Refrigerating equipment consisting of components which are not fitted together to form a whole and are interconnected by means of piping through which the coolant circulates (heading 84.18).', '(3)  Irrigation systems consisting of a control station comprising filters, injectors, metering valves, etc., underground distribution and branchlines, and a surface network (heading 84.24).', '(4)  Milking machines with separate component parts (vacuum pump, pulsator, teat cups and pails) interconnected by hoses or piping (heading 84.34).', '(5)  Brewhouse machinery comprising, inter alia, sprouting or germination machines, malt crushing machines, mashing vats, straining vats (heading 84.38). Auxiliary appliances (e.g., bottling machines, label printing machines), are however not included and should be classified in their own appropriate heading.', '(6)  Letter sorting systems consisting essentially of coding desks, pre sorting channel systems, intermediate sorters and final sorters, the whole being controlled by an automatic data processing machine (heading 84.72).', '(7)  Asphalt plant consisting of separate components, such as feed hoppers, conveyors, dryers, vibrating screens, mixers, storage bins and control units, placed side by side (heading 84.74).', '(8)  Machinery for assembling electric filament lamps, of which the component parts are interconnected by conveyors, and which include equipment for the heat treatment of glass, pumps and lamp testing units (heading 84.75).', '(9)  Welding equipment consisting of the welding head or tongs, with a transformer, generator or rectifier to supply the current (heading 85.15).', '(10) Portable radiotelephone transmitters and their associated hand microphone (heading 85.17).', '(11) Radar apparatus with the associated power packs, amplifiers, etc. (heading 85.26).', '(12) Satellite television reception systems consisting of a receiver, a parabolic aerial reflector dish, a control rotator for the reflector dish, a feed horn (wave guide), a polarizer, a low-noise-block (LNB) down converter and an infra-red remote control (heading 85.28).', '(13)  Burglar alarms, comprising, e.g., an infra red lamp, a photoelectric cell and a bell (heading 85.31).', 'It should be noted that component parts not complying with the terms of Note 4 to Section XVI fall in their own appropriate headings. This applies, for example, to closed circuit video-surveillance systems, consisting of a combination of a variable number of television cameras and video monitors connected by coaxial cables to a controller, switchers, audio board/receivers and possibly automatic data processing machines (for saving data) and/or video recorders (for recording pictures).', '(VIII) MOBILE MACHINERY', 'As regards self propelled or other mobile machines, reference should be made to the Explanatory Notes to the headings for the machines (e.g., lifting and handling machinery, headings 84.25 to 84.28, and excavating machinery, headings 84.29 and 84.30), and to the Explanatory Notes to the Chapters and headings of Section XVII.', '(IX) MACHINERY AND APPARATUS ', 'FOR USE IN LABORATORIES', 'Machinery and apparatus of a kind covered by this Section remain classified in the Section even if specialised for use in laboratories or in connection with scientific and measuring instruments, provided they do not constitute non industrial demonstrational apparatus of heading 90.23 nor measuring, checking, etc., instruments of Chapter 90. For example, small furnaces, distillation apparatus, grinders, mixers, electrical transformers and capacitors, for use in laboratories, remain classified in this Section.', '(X) ELECTRICAL AND ELECTRONIC ', 'WASTE AND SCRAP (E-WASTE)', '(Section Note 6)', 'The expression “original purpose”, in Note 6 to Section XVI, refers to functional use as an electrical or electronic good.', '']</t>
@@ -329,7 +382,7 @@
     <t>['총설', '부주 제1호 : ', '이 주는 두 가지 이상의 별개 구성요소(구성요소의 일부나 전부가 제7부에 해당하는 것에 한정한다)를 세트로 포장한 물품의 분류를 규정한 것이다. 다만, 이 주의 규정은 구성요소를 혼합하여 제6부나 제7부의 물품을 만들도록 되어 있는 세트로 한정한다. 이와 같은 세트 물품은 동세트의 구성요소가 해당 주 가목부터 다목까지의 조건을 충족시키는 경우에 한정하여 제6부나 제7부의 해당하는 호에 분류한다.', '두 가지 이상의 별개 구성요소를 세트로 포장한 물품(구성요소의 일부나 전부가 제7부에 해당하는 것으로 한정한다)으로서 사전에 혼합하지 않고 차례로 사용하게 되어 있는 경우에는 해당 주제1호의 규정의 적용을 받지 않는다는 것을 유의하여야 한다. 소매용으로 포장된 이러한 물품을 통칙[일반적으로 통칙제3호나목]에 의하여 분류한다. 소매용으로 포장된 물품이 아닌 경우에 있어서 해당 구성요소는 각각 별개로 분류한다.', '부주 제2호 : ', '제3918호(플라스틱으로 만든 바닥깔개와 벽 피복재나 천장 피복재)와 제3919호(플라스틱으로 만든 접착성 판 등)의 물품은 해당 물품의 본래의 용도에 부수적이지 않은 모티프(motif)ㆍ문자나 그림을 인쇄한 것이라 하더라도 제49류에 해당되지 않고, 앞에서 설명한 호에 분류한다. 다만, 제7부에 해당되는 플라스틱이나 고무로 만든 그 밖의 다른 모든 물품이 그 물품에 되어 있는 인쇄가 해당 물품의 본래의 용도에 부수적이지 않으며 동시에 그 플라스틱이나 고무가 인쇄용 매체(medium) 역할만을 하는 경우에는 그런 물품은 제49류에 분류한다.']</t>
   </si>
   <si>
-    <t>['총설', '일반적으로 제11부에는 방직용 섬유공업의 원료(견․양모․면․인조섬유 등)․반제품(실과 직물류)과 이것으로 제조된 제품을 분류한다. 그러나 제11부의 주 제1호와 이 부에 속하는 특정의 류의 주나 각 류의 각 호에 대한 해설에서 규정된 특정의 수많은 재료와 물품은 제외한다. 특히 다음의 것은 제11부에 분류하지 않는다.', '(a) 사람머리카락이나 그 제품(일반적으로 제0501호ㆍ제6703호ㆍ제6704호). 그러나 착유기나 이와 유사한 기계에 사용하는 종류의 여과포(filtering or straining cloth)(제5911호)는 이 부에 포함한다.', '(b) 석면섬유와 그 제품(실․섬유․의류 등)(제2524호ㆍ제6812호와 제6813호)', '(c) 탄소섬유와 그 밖의 비금속(非金屬 : non-metallic) 광물성 섬유[예: 탄화규소, 암면(rock wool)]과 이들 섬유의 제품(제68류)', '(d) 유리섬유ㆍ유리실ㆍ유리직물과 이들의 제품이나 유리섬유와 방직용 섬유의 복합품으로서 유리섬유제품의 특성을 가진 것(제70류 참조). 그러나 투시할 수 있는 방직용 섬유직물의 바탕천 위에 유리섬유사로 자수한 것은 이 부에 포함한다.', '제11부는 14개의 류로 구분되며 이는 두 부분으로 나누어 생각할 수 있는데, 첫 번째 부분(제50류～제55류)은 방직용 섬유재료의 종류에 따라 분류하고 두 번째 부분(제56류～63류)은 4단위 호의 단계에 있어서는 방직용 섬유의 종류를 구분하지 않고 물품을 분류한다(제5809호와 제5902호는 제외한다).', '(Ⅰ) 제50류부터 제55류까지', '제50류에서 제55류까지는 일종이나 이종 이상의 방직용 섬유를 단독으로나 혼합하여 직물(총설(1)(C)에 규정과 같이)로 된 것과 직물이 되기까지 각 단계의 물품을 분류한다. 대부분의 경우 원료, 웨이스트(waste)를 재생한 섬유[가닛스톡(garnetted stock)을 포함하며 섬유를 뽑아내지 않은(unpulled)된 넝마는 제외한다], 슬리버(sliver), 로빙(roving) 모양의 카드(card)나 코움(comb)한 섬유, 실과 직물을 분류한다.', '(A) 이종 이상의 서로 다른 섬유로서 혼합된 물품의 분류', ' (제11부의 주 제2호 참조)', '제50류부터 제55류[웨이스트(waste)ㆍ실ㆍ직물 등]까지나 제5809호, 제5902호에 해당하는 둘 이상의 서로 다른 방직용 섬유로 구성된 물품은 최대중량을 가진 방직용 섬유로 된 물품으로 분류한다.', '구성하는 방직용 섬유 중 최대 중량을 차지하는 섬유가 없을 경우에는 동일하게 분류가 가능한 호 중에서 그 순서상 가장 마지막 호에 해당하는 물품으로 분류한다.', '방직용 섬유재료는 다음의 과정에서 혼합될 수 있다', '- 방적 이전의 단계나 방적 과정(during spinning)', '- 꼬임 과정(during twisting)', '- 직조 과정(during weaving)', '둘 이상의 서로 다른 직물의 조직으로 조성된 물품(제5811호의 제품은 제외한다)이 봉제, 접착(gumming) 등에 의하여 겹 붙여진 경우에는 통칙 제3의 규정에 따라 분류한다. 따라서 제11부의 주 제2호의 규정은 물품의 전체를 고려, 품목분류 하는데 있어서 직물 내에서 최대중량을 차지하는 방직용 섬유재료를 결정하는데 필요한 경우에만 적용된다.', '이와 유사한 것으로서 제11부의 주 제2호의 규정은 방직용 섬유재료와 비(非) 섬유재료로 조성된 혼합 물품에 대하여도 적용하는데 다만, 이 표의 통칙에 따라 방직용 섬유의 물품으로 분류하는 경우에 한정한다.', '이 부의 주 제2호의 규정을 적용함에 있어서는 다음의 것을 유의하여야 한다.', '(1) 어떤 류나 어떤 호에 서로 다른 방직용 섬유재료로 구성된 물품을 분류하는 경우에는 그 재료들은 다른 재료와 혼합된 재료를 포함한 유사물품을 분류하기 위하여 모두 합쳐져야 한다. 해당 호의 결정은 우선 류를 결정하고, 그 다음 그 류에 속하는 적절한 호를 결정하여야 하며 해당 류에 분류하지 않는 재료는 고려하지 않는다.', '사례 : ', '(a) 제직된 직물 중 구성성분비율이', '전 중량에서 합성스테이플 섬유의 중량이 40%, ', '코움(comb)한 양모의 중량이 35%, ', '코움(comb)한 동물의 부드러운 털의 중량이 25%인 것은', '제5515호(그 밖의 합성스테이플 섬유의 직물)에 분류하지 않고 제5112호[코움(comb)한 양모나 코움(comb)한 동물의 부드러운 털의 직물]에 분류한다. 왜냐하면 본 사례의 경우 양모와 동물의 부드러운 털의 중량의 비율을 합산하여야하기 때문이다.', '(b) 제직된 중량이 210g/㎡인 직물 중 구성성분비율이', '전 중량에 면의 중량이 40%, ', '재생ㆍ반(半)합성 스테이플 섬유의 중량이 30%, ', '합성스테이플 섬유의 중량이 30%인 것은', '제5211호(면의 중량이 전 중량의 85% 미만이고, 주로 인조섬유와 혼방한 것으로서 중량이 200g/㎡을 초과하는 면직물)나, 제5514호(합성스테이플 섬유의 중량이 전 중량의 85% 미만이고, 주로 면과 혼방한 것으로서 중량이 170g/㎡을 초과하는 합성 스테이플 섬유직물)에 분류하지 않고, 제5516호(재생ㆍ반(半)합성 스테이플 섬유직물)에 분류한다. 이러한 분류는 먼저 관련 류(본 사례의 경우 합성스테이플 섬유와 재생ㆍ반(半)합성 스테이플 섬유의 중량을 합산하여야 하므로 관련 류는 제55류가 된다)를 결정하고 다음에 그 결정된 류 안에서 해당 호인 제5516호(본 사례의 경우 여러 호에 해당된다고 인정되는 호 중 가장 마지막 호)로 결정한다.', '(c) 제직된 직물 중 구성성분비율이', '전 중량에서 아마의 중량이 35%, ', '황마의 중량이 25%, ', '면의 중량이 40%인 것은', '제5212호(그 밖의 면직물)에 분류하지 않고 제5309호(아마직물)에 분류한다. 이러한 분류는 먼저 관련 류(본 사례의 경우 아마와 황마를 합해야 하므로 관련 류는 제53류가 된다)를 결정하고 다음에 결정된 류 안에서 해당 호인 제5309호(아마의 중량이 황마의 중량을 초과하며 제11부의 주 제2호나목 2)에 따라 면의 함유량은 고려하지 않으므로)를 결정한다.', '(2) 짐프한(gimped) 말의 털로 만든 실과 금속드리사(metallised yarn)는 하나의 방직용 섬유재료로 보며, 그 중량은 이를 구성하는 중량의 합계에 따른다.', '(3) 직물의 분류상 금속사(metal thread)는 방직용 섬유재료로 본다.', '(4) 제54류와 제55류는 그 밖의 다른 류와의 관계에서 하나의 류로 본다.', '사례 : ', '제직된 직물 중 구성성분비율이 전 중량에서 합성필라멘트의 중량이 35%, ', '합성스테이플 섬유의 중량이 25%, ', '코움(comb)한 양모의 중량이 40%인 것은 ', '제5112호(코움(comb)한 양모로 만든 직물)에 분류하지 않고 제5407호(합성필라멘트사의 직물)에 분류한다. 왜냐하면 본 사례의 경우 합성필라멘트의 중량과 합성스테이플 섬유의 중량의 비율을 합산하여야 하기 때문이다.', '(5) 또한 사이징(sizing)이나 드레싱(dressing) 가공제[예: 견의 경우에 첨가하는 증량가공제(weighting : loading)]와 침투(impregnation)용․도포(coating)용․피복(covering)용․시드(sheathing)용의 것으로서 방직용 섬유에 결합된 물품은 비방직용 재료로 간주하지 않는다. 바꾸어 말하면 방직용 섬유의 중량은 제시된 상태의 중량을 기준으로 계산된다.', '혼방 물품이 주로 특정 방직용 섬유재료로 이루어진 경우의 분류에 있어서는 그 혼방 물품에 포함되어 있는 각 재료별들 중에서 최대 중량을 차지하는 방직용 섬유 재료에 대하여 우선 고려한다.', '사례 : ', '전체 중 제직된 중량이 200g/m² 이하인 직물 중 구성성분 비율이 면의 중량이 55%, ', '인조섬유의 중량이 22%, ', '양모의 중량이 21%,', '견의 중량이 2%인 것은', '제5212호(그 밖의 면직물)에 해당되지 않고 제5210호(면의 중량이 전 중량의 85% 미만이며, 주로 인조섬유와 혼방한 것으로서 중량이 200g/m² 이하의 것)에 분류한다.', '(B) 실(yarn)', '(1) 총설', '방직용 섬유사(textile yarn)에는 단사ㆍ복합사(연합사)나 케이블사가 있다. 이 표의 품목분류에 있어서', '(i) 단사(single yarn)란 다음과 같은 실로 구성된 것을 ', '(a) 스테이플섬유를 통상적으로 꼬은 것(방적사 : spun yarn ; 또는)', '(b) 제5402호부터 제5405호까지의 한 가닥의 필라멘트(모노필라멘트)나 제5402호나 제5403호의 두 가닥 이상의 필라멘트(멀티필라멘트)로 구성된 실(꼬았는지에 상관없다)[(장(長)사 : continuous yarn)]', '(ii) 복합사(multiple yarn)(연합사 : folded yarn)란 둘 이상의 단사[제5404호나 제5405호의 모노필라멘트로부터 제조한 실을 포함한다]를 1회의 연합조작으로 꼬은 실(이연합사, 삼연합사, 사연합사 등)을 말한다. 그러나 제5402호나 제5403호의 모노필라멘트로만을 꼬아서 합친 복합사(연합사)로 취급하지 않는다.', '복합사(연합사)의 가닥[“겹(fold)”]이라는 말은 복합사(연합사)를 구성하는 개개의 단사를 의미한다.', '(iii) 케이블사(cabled yarn)란 둘 이상의 실(적어도 하나의 실이 복합사(연합사)인 경우)을 1회 이상의 연합조작으로 서로 꼬은 것을 말한다. ', '케이블사에서 가닥(ply)[“겹”(fold)]이라는 말은 케이블사를 구성하는 개개의 단사나 복합사(연합사)를 의미한다.', '위의 실들이 둘 이상의 단사ㆍ복합사(연합사)나 케이블사를 병렬(나란히 붙인 것)하여 만들어지는 경우 때때로 복합권사(조합사)[multiple wound(assembled) yarn]이라고 부른다. 이들은 구성하는 실의 종류에 따라서 단사ㆍ복합사(연합사)나 케이블사로 취급된다.', '단사ㆍ복합사(연합사)나 케이블사는 일정한 간격으로 루프(loop)나 슬리버(silver)를 가지고 있는 것도 있다[부클레사(bouclé yarn)나 루프사(looped yarn), 슬러브사(slub yarn)나 플라메사(flamme yarn)]. 이들은 둘 이상의 실로 구성되며, 그 중 하나가 일정한 간격으로 스스로 접혀있어 루프나 부풀어오른 효과를 줄 수 있다.', '광택 가공한(polished) 실이나 윤택 가공한(glazed) 실은 천연 물질(왁스ㆍ파라핀 등)이나 합성 물질(특히 아크릴수지)을 기본 재료로 한 조제품으로 처리된 후 광택용 롤러로서 광택나게 한 실이다.', '실은 측정방법에 따라서 표시되며 측정방법으로 아직도 여러 가지 번수제도를 사용하고 있다. 그러나 표에서는 선밀도의 표시단위인 “텍스(tex)”제도를 사용하고 있는데 이는 실ㆍ필라멘트ㆍ섬유나 그 밖의 섬유가닥 1km의 선을 그램 중량으로 나타낸 것이다. 1 데시텍스는 0.1 텍스이다. 미터식 번수를 데시텍스로 환산하는데 있어서는 다음의 공식이 적용된다.', '&lt;a href="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_01.jpg" title="kor_t01_hs11_01.jpg"&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_01.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_01.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '실(yarn)은 표백하지 않은 실ㆍ세정한 실ㆍ표백한 실ㆍ크림처리한 실ㆍ염색한 실ㆍ날염한 실ㆍ반점염색한 실 등이 있다. 또한 모소처리한(毛燒 : gassed) 실(즉, 표면에 보풀이 일고 있는 섬유를 제거한 실)․머서화 가공한(mercerised) 실 (즉, 장력을 준 상태에서 수산화나트륨으로 처리한 것)․기름처리한(oiled) 실 등이 있다.', '다만, 제50류부터 제55류까지에서는 다음의 것을 제외한다.', '(a) 제5604호의 고무실, 피복된 방직용 섬유와 고무나 플라스틱을 침투(침지한 것을 포함한다)․도포(塗布)․피복․시드한(sheathed) 방직용 섬유사', '(b) 금속드리사(metallised yarn)(제5605호)', '(c) 짐프사(gimped yarn), 셔닐사(chenille yarn)과 루프 웨일사(loop wale-yarn)(제5606호)', '(d) 짠(braided) 방직용 섬유사(경우에 따라 제5607호나 제5808호)', '(e) 금속사로 보강한 방직용 섬유사(제5607호)', '(f) 실, 모노필라멘트, 방직용 섬유를 나란히 놓고 접착제로 접착시킨 것(볼덕)(제5806호)', '(g) 방직용 섬유사를 나란히 놓고 고무로 응결시킨 방직용 섬유사(제5906호)', '(2) 제50류부터 제55류까지에 분류하는 단사ㆍ복합사(연합사)나 케이블사, 제5607호에 분류하는 끈ㆍ배의 밧줄(cordage)ㆍ로프ㆍ케이블과 제5808호의 브레이드(braid)와의 구별', '(제11부의 주 제3호 참조)', '제50류에서 제55류까지에는 모든 실류를 다 분류하지는 않는다. 실류는 그의 특성에 따라(측정방법, 광택이나 윤택가공 여부, 실의 가닥수) 실을 분류하는 제50류부터 제55류까지의 각 호에 분류하며 끈ㆍ배의 밧줄(cordage)ㆍ로프나 케이블은 제5607호에, 브레이드(braid)는 제5808호에 분류한다. 다음 표Ⅰ은 각각의 경우에 있어서의 정확한 분류를 표시한 것이다.', '표 I', '방직용 섬유의 실과 끈ㆍ배의 밧줄(cordage)ㆍ로프․케이블의 분류표', '&lt;a href="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_02.jpg" title="kor_t01_hs11_02.jpg"&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_02.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_02.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '&lt;a href="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_03.jpg" title="kor_t01_hs11_03.jpg"&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_03.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_03.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '각주', '(*)  이 표의 여러 가지 섬유재료에 대한 규정은 제11부의 주 제2호의 규정에 따라 분류하는 혼합섬유에 대해서도 적용한다(제11부의 총설(I)(A) 참조).', '(**) 제5006호의 누에의 거트(gut), 제54류의 모노필라멘트와 꼬임이 없거나 1미터당 5회 미만 꼬임의 멀티필라멘트사나 제55류의 인조필라멘트의 토우(tow)는 어떤 경우에도 제5607호에 분류하지 않는다.', '(3) 소매용으로 된 실', '(제11부의 주 제4호 참조)', '제50류․제51류․제52류․제54류․제55류의 호 중 특정 호는 소매용으로 된 것을 분류한다. 이 호에 분류하기 위해서 실은 다음 표 II에서 제시한 기준에 부합하여야 한다.', '다만, 다음의 실은 소매용으로 된 실로 간주하지 않는다.', '(a) 견ㆍ견 웨이스트(waste)ㆍ면이나 인조섬유의 단사(어떤 포장이라도 상관없다)', '(b) 양모나 동물의 부드러운 털의 단사 중 표백ㆍ염색이나 날염한 것으로서 5,000데시텍스 이하의 것(어떤 포장이라도 상관없다)', '(c) 견ㆍ견 웨이스트(waste)의 복합사(연합사)나 케이블사로서 표백하지 않은 것(어떤 포장이라도 상관없다)', '(d) 면이나 인조섬유의 복합사(연합사)나 케이블사 중 표백하지 않은 것으로서 타래로 묶은 것', '(e) 견이나 견 웨이스트(waste)의 복합사(연합사)나 케이블사 중 표백ㆍ염색이나 날염한 것으로서 133 데시텍스 이하의 것', '(f) 여러 가지 방직용 섬유의 단사ㆍ복합사(연합사)나 케이블사로서 크로스릴(cross-reel) 모양의 타래로 감은 것(*)', '(g) 여러 가지 방직용 섬유의 단사․복합사(연합사)나 케이블사로서 실패(내부 지지물)[예: 콥(cop)․연사(撚絲)용 튜브․펀(pirn)․원추형 보빈(bobbin)이나 스핀들(spindle)]에 감겨있는 것이나 어떤 다른 방법으로 감겨 있는 것(예: 누에고치 모양으로 감은 자수직기용의 것으로서 자수직기에 사용되는 것, 원심식 방사기로 만든 케이크)(섬유공업에서의 그 용도가 표시되는 것)', '*', '*  *', '각주', '(*) 크로스릴(cross-reeling)은 실타래가 헝클어지는 것을 방지하기 위하여 실을 대각선 상태로 타래를 감는 방법으로서 보통 타래 염색을 할 때 사용하는 방법이다.', '&lt;a href="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_04.jpg" title="kor_t01_hs11_04.jpg"&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_04.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_04.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '표 II', '소매용으로 된 실(위의 제외규정은 예외로 한다)', '&lt;a href="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_05.jpg" title="kor_t01_hs11_05.jpg"&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_05.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_05.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '각주', '(*) 이 표의 여러 가지 섬유재료에 대한 규정은 제11부의 주 제2호의 규정에 의하여 분류하는 혼합섬유에 대해서도 적용한다(제11부의 총설 I(A) 참조).', '(**) 연속된 긴 실로서, 분리될 수 있게 작은 타래로 묶어 이 작은 여러 개의 타래를 합쳐서 끝 타래로 묶으며 일정한 곳을 묶은 하나 이상의 간사(dividing thread)를 절단하면 쉽게 작은 타래로 분리되는 것도 있다. 하나 이상의 간사가 서로 독립하면서 타래 사이를 통과한다. 때에 따라서 타래를 종이 밴드로 묶는 경우도 있다. 일련의 연속사로서 큰 타래를 감어 놓은 것으로서 간사를 가지고 있는 것도 있는데 간사에 의하여 균일한 중량의 작은 타래로 분리되는 것이 아니고 가공 중에(예: 염색) 헝클어지는 것을 단순히 방지하기 위한 목적으로 만든 경우에는 큰 타래(하나 이상의 간사에 의해 분리되는 여러 개의 작은 타래로 구성된 것)로 간주하지 않으며 또한 소매용 포장으로 된 것으로도 간주하지 않는다.', '(4) 재봉사(sewing thread)', '(제11부의 주 제5호 참조)', '제5204호ㆍ제5401호ㆍ제5508호에서 “재봉사(sewing thread)”는 다음의 요건에 해당하는 복합사(연합사)나 케이블사를 말한다.', '(a) 실패[예: 릴(reel)ㆍ튜브(tube)]에 감은 실로서 한개의 중량(실패의 중량을 포함한다)이 1,000g 이하의 것 ', '(b) 재봉사로 사용하는 드레스한 실 ', '(c) 최종 꼬임이 “Z” 인 실 ', '“드레스한 것(dressed)”이란 완성 가공처리를 한 것을 말한다. 이러한 처리는 예를 들면, 윤활 성질이나 열 저항력의 부여, 정전기 형성의 방지나 외관을 개선함으로써 방직용 섬유사를 재봉사로 사용하기에 용이하도록 한다. 이러한 처리는 실리콘ㆍ전분ㆍ왁스ㆍ파라핀 등을 기본 재료로 한 물질의 사용을 포함한다.', '재봉사의 길이는 일반적으로 실패에 감긴 상태로서 알 수 있다.', ' &amp;lt;img src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/ko']</t>
+    <t>['총설', '일반적으로 제11부에는 방직용 섬유공업의 원료(견․양모․면․인조섬유 등)․반제품(실과 직물류)과 이것으로 제조된 제품을 분류한다. 그러나 제11부의 주 제1호와 이 부에 속하는 특정의 류의 주나 각 류의 각 호에 대한 해설에서 규정된 특정의 수많은 재료와 물품은 제외한다. 특히 다음의 것은 제11부에 분류하지 않는다.', '(a) 사람머리카락이나 그 제품(일반적으로 제0501호ㆍ제6703호ㆍ제6704호). 그러나 착유기나 이와 유사한 기계에 사용하는 종류의 여과포(filtering or straining cloth)(제5911호)는 이 부에 포함한다.', '(b) 석면섬유와 그 제품(실․섬유․의류 등)(제2524호ㆍ제6812호와 제6813호)', '(c) 탄소섬유와 그 밖의 비금속(非金屬 : non-metallic) 광물성 섬유[예: 탄화규소, 암면(rock wool)]과 이들 섬유의 제품(제68류)', '(d) 유리섬유ㆍ유리실ㆍ유리직물과 이들의 제품이나 유리섬유와 방직용 섬유의 복합품으로서 유리섬유제품의 특성을 가진 것(제70류 참조). 그러나 투시할 수 있는 방직용 섬유직물의 바탕천 위에 유리섬유사로 자수한 것은 이 부에 포함한다.', '제11부는 14개의 류로 구분되며 이는 두 부분으로 나누어 생각할 수 있는데, 첫 번째 부분(제50류～제55류)은 방직용 섬유재료의 종류에 따라 분류하고 두 번째 부분(제56류～63류)은 4단위 호의 단계에 있어서는 방직용 섬유의 종류를 구분하지 않고 물품을 분류한다(제5809호와 제5902호는 제외한다).', '(Ⅰ) 제50류부터 제55류까지', '제50류에서 제55류까지는 일종이나 이종 이상의 방직용 섬유를 단독으로나 혼합하여 직물(총설(1)(C)에 규정과 같이)로 된 것과 직물이 되기까지 각 단계의 물품을 분류한다. 대부분의 경우 원료, 웨이스트(waste)를 재생한 섬유[가닛스톡(garnetted stock)을 포함하며 섬유를 뽑아내지 않은(unpulled)된 넝마는 제외한다], 슬리버(sliver), 로빙(roving) 모양의 카드(card)나 코움(comb)한 섬유, 실과 직물을 분류한다.', '(A) 이종 이상의 서로 다른 섬유로서 혼합된 물품의 분류', ' (제11부의 주 제2호 참조)', '제50류부터 제55류[웨이스트(waste)ㆍ실ㆍ직물 등]까지나 제5809호, 제5902호에 해당하는 둘 이상의 서로 다른 방직용 섬유로 구성된 물품은 최대중량을 가진 방직용 섬유로 된 물품으로 분류한다.', '구성하는 방직용 섬유 중 최대 중량을 차지하는 섬유가 없을 경우에는 동일하게 분류가 가능한 호 중에서 그 순서상 가장 마지막 호에 해당하는 물품으로 분류한다.', '방직용 섬유재료는 다음의 과정에서 혼합될 수 있다', '- 방적 이전의 단계나 방적 과정(during spinning)', '- 꼬임 과정(during twisting)', '- 직조 과정(during weaving)', '둘 이상의 서로 다른 직물의 조직으로 조성된 물품(제5811호의 제품은 제외한다)이 봉제, 접착(gumming) 등에 의하여 겹 붙여진 경우에는 통칙 제3의 규정에 따라 분류한다. 따라서 제11부의 주 제2호의 규정은 물품의 전체를 고려, 품목분류 하는데 있어서 직물 내에서 최대중량을 차지하는 방직용 섬유재료를 결정하는데 필요한 경우에만 적용된다.', '이와 유사한 것으로서 제11부의 주 제2호의 규정은 방직용 섬유재료와 비(非) 섬유재료로 조성된 혼합 물품에 대하여도 적용하는데 다만, 이 표의 통칙에 따라 방직용 섬유의 물품으로 분류하는 경우에 한정한다.', '이 부의 주 제2호의 규정을 적용함에 있어서는 다음의 것을 유의하여야 한다.', '(1) 어떤 류나 어떤 호에 서로 다른 방직용 섬유재료로 구성된 물품을 분류하는 경우에는 그 재료들은 다른 재료와 혼합된 재료를 포함한 유사물품을 분류하기 위하여 모두 합쳐져야 한다. 해당 호의 결정은 우선 류를 결정하고, 그 다음 그 류에 속하는 적절한 호를 결정하여야 하며 해당 류에 분류하지 않는 재료는 고려하지 않는다.', '사례 : ', '(a) 제직된 직물 중 구성성분비율이', '전 중량에서 합성스테이플 섬유의 중량이 40%, ', '코움(comb)한 양모의 중량이 35%, ', '코움(comb)한 동물의 부드러운 털의 중량이 25%인 것은', '제5515호(그 밖의 합성스테이플 섬유의 직물)에 분류하지 않고 제5112호[코움(comb)한 양모나 코움(comb)한 동물의 부드러운 털의 직물]에 분류한다. 왜냐하면 본 사례의 경우 양모와 동물의 부드러운 털의 중량의 비율을 합산하여야하기 때문이다.', '(b) 제직된 중량이 210g/㎡인 직물 중 구성성분비율이', '전 중량에 면의 중량이 40%, ', '재생ㆍ반(半)합성 스테이플 섬유의 중량이 30%, ', '합성스테이플 섬유의 중량이 30%인 것은', '제5211호(면의 중량이 전 중량의 85% 미만이고, 주로 인조섬유와 혼방한 것으로서 중량이 200g/㎡을 초과하는 면직물)나, 제5514호(합성스테이플 섬유의 중량이 전 중량의 85% 미만이고, 주로 면과 혼방한 것으로서 중량이 170g/㎡을 초과하는 합성 스테이플 섬유직물)에 분류하지 않고, 제5516호(재생ㆍ반(半)합성 스테이플 섬유직물)에 분류한다. 이러한 분류는 먼저 관련 류(본 사례의 경우 합성스테이플 섬유와 재생ㆍ반(半)합성 스테이플 섬유의 중량을 합산하여야 하므로 관련 류는 제55류가 된다)를 결정하고 다음에 그 결정된 류 안에서 해당 호인 제5516호(본 사례의 경우 여러 호에 해당된다고 인정되는 호 중 가장 마지막 호)로 결정한다.', '(c) 제직된 직물 중 구성성분비율이', '전 중량에서 아마의 중량이 35%, ', '황마의 중량이 25%, ', '면의 중량이 40%인 것은', '제5212호(그 밖의 면직물)에 분류하지 않고 제5309호(아마직물)에 분류한다. 이러한 분류는 먼저 관련 류(본 사례의 경우 아마와 황마를 합해야 하므로 관련 류는 제53류가 된다)를 결정하고 다음에 결정된 류 안에서 해당 호인 제5309호(아마의 중량이 황마의 중량을 초과하며 제11부의 주 제2호나목 2)에 따라 면의 함유량은 고려하지 않으므로)를 결정한다.', '(2) 짐프한(gimped) 말의 털로 만든 실과 금속드리사(metallised yarn)는 하나의 방직용 섬유재료로 보며, 그 중량은 이를 구성하는 중량의 합계에 따른다.', '(3) 직물의 분류상 금속사(metal thread)는 방직용 섬유재료로 본다.', '(4) 제54류와 제55류는 그 밖의 다른 류와의 관계에서 하나의 류로 본다.', '사례 : ', '제직된 직물 중 구성성분비율이 전 중량에서 합성필라멘트의 중량이 35%, ', '합성스테이플 섬유의 중량이 25%, ', '코움(comb)한 양모의 중량이 40%인 것은 ', '제5112호(코움(comb)한 양모로 만든 직물)에 분류하지 않고 제5407호(합성필라멘트사의 직물)에 분류한다. 왜냐하면 본 사례의 경우 합성필라멘트의 중량과 합성스테이플 섬유의 중량의 비율을 합산하여야 하기 때문이다.', '(5) 또한 사이징(sizing)이나 드레싱(dressing) 가공제[예: 견의 경우에 첨가하는 증량가공제(weighting : loading)]와 침투(impregnation)용․도포(coating)용․피복(covering)용․시드(sheathing)용의 것으로서 방직용 섬유에 결합된 물품은 비방직용 재료로 간주하지 않는다. 바꾸어 말하면 방직용 섬유의 중량은 제시된 상태의 중량을 기준으로 계산된다.', '혼방 물품이 주로 특정 방직용 섬유재료로 이루어진 경우의 분류에 있어서는 그 혼방 물품에 포함되어 있는 각 재료별들 중에서 최대 중량을 차지하는 방직용 섬유 재료에 대하여 우선 고려한다.', '사례 : ', '전체 중 제직된 중량이 200g/m² 이하인 직물 중 구성성분 비율이 면의 중량이 55%, ', '인조섬유의 중량이 22%, ', '양모의 중량이 21%,', '견의 중량이 2%인 것은', '제5212호(그 밖의 면직물)에 해당되지 않고 제5210호(면의 중량이 전 중량의 85% 미만이며, 주로 인조섬유와 혼방한 것으로서 중량이 200g/m² 이하의 것)에 분류한다.', '(B) 실(yarn)', '(1) 총설', '방직용 섬유사(textile yarn)에는 단사ㆍ복합사(연합사)나 케이블사가 있다. 이 표의 품목분류에 있어서', '(i) 단사(single yarn)란 다음과 같은 실로 구성된 것을 ', '(a) 스테이플섬유를 통상적으로 꼬은 것(방적사 : spun yarn ; 또는)', '(b) 제5402호부터 제5405호까지의 한 가닥의 필라멘트(모노필라멘트)나 제5402호나 제5403호의 두 가닥 이상의 필라멘트(멀티필라멘트)로 구성된 실(꼬았는지에 상관없다)[(장(長)사 : continuous yarn)]', '(ii) 복합사(multiple yarn)(연합사 : folded yarn)란 둘 이상의 단사[제5404호나 제5405호의 모노필라멘트로부터 제조한 실을 포함한다]를 1회의 연합조작으로 꼬은 실(이연합사, 삼연합사, 사연합사 등)을 말한다. 그러나 제5402호나 제5403호의 모노필라멘트로만을 꼬아서 합친 복합사(연합사)로 취급하지 않는다.', '복합사(연합사)의 가닥[“겹(fold)”]이라는 말은 복합사(연합사)를 구성하는 개개의 단사를 의미한다.', '(iii) 케이블사(cabled yarn)란 둘 이상의 실(적어도 하나의 실이 복합사(연합사)인 경우)을 1회 이상의 연합조작으로 서로 꼬은 것을 말한다. ', '케이블사에서 가닥(ply)[“겹”(fold)]이라는 말은 케이블사를 구성하는 개개의 단사나 복합사(연합사)를 의미한다.', '위의 실들이 둘 이상의 단사ㆍ복합사(연합사)나 케이블사를 병렬(나란히 붙인 것)하여 만들어지는 경우 때때로 복합권사(조합사)[multiple wound(assembled) yarn]이라고 부른다. 이들은 구성하는 실의 종류에 따라서 단사ㆍ복합사(연합사)나 케이블사로 취급된다.', '단사ㆍ복합사(연합사)나 케이블사는 일정한 간격으로 루프(loop)나 슬리버(silver)를 가지고 있는 것도 있다[부클레사(bouclé yarn)나 루프사(looped yarn), 슬러브사(slub yarn)나 플라메사(flamme yarn)]. 이들은 둘 이상의 실로 구성되며, 그 중 하나가 일정한 간격으로 스스로 접혀있어 루프나 부풀어오른 효과를 줄 수 있다.', '광택 가공한(polished) 실이나 윤택 가공한(glazed) 실은 천연 물질(왁스ㆍ파라핀 등)이나 합성 물질(특히 아크릴수지)을 기본 재료로 한 조제품으로 처리된 후 광택용 롤러로서 광택나게 한 실이다.', '실은 측정방법에 따라서 표시되며 측정방법으로 아직도 여러 가지 번수제도를 사용하고 있다. 그러나 표에서는 선밀도의 표시단위인 “텍스(tex)”제도를 사용하고 있는데 이는 실ㆍ필라멘트ㆍ섬유나 그 밖의 섬유가닥 1km의 선을 그램 중량으로 나타낸 것이다. 1 데시텍스는 0.1 텍스이다. 미터식 번수를 데시텍스로 환산하는데 있어서는 다음의 공식이 적용된다.', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_01.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_01.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '실(yarn)은 표백하지 않은 실ㆍ세정한 실ㆍ표백한 실ㆍ크림처리한 실ㆍ염색한 실ㆍ날염한 실ㆍ반점염색한 실 등이 있다. 또한 모소처리한(毛燒 : gassed) 실(즉, 표면에 보풀이 일고 있는 섬유를 제거한 실)․머서화 가공한(mercerised) 실 (즉, 장력을 준 상태에서 수산화나트륨으로 처리한 것)․기름처리한(oiled) 실 등이 있다.', '다만, 제50류부터 제55류까지에서는 다음의 것을 제외한다.', '(a) 제5604호의 고무실, 피복된 방직용 섬유와 고무나 플라스틱을 침투(침지한 것을 포함한다)․도포(塗布)․피복․시드한(sheathed) 방직용 섬유사', '(b) 금속드리사(metallised yarn)(제5605호)', '(c) 짐프사(gimped yarn), 셔닐사(chenille yarn)과 루프 웨일사(loop wale-yarn)(제5606호)', '(d) 짠(braided) 방직용 섬유사(경우에 따라 제5607호나 제5808호)', '(e) 금속사로 보강한 방직용 섬유사(제5607호)', '(f) 실, 모노필라멘트, 방직용 섬유를 나란히 놓고 접착제로 접착시킨 것(볼덕)(제5806호)', '(g) 방직용 섬유사를 나란히 놓고 고무로 응결시킨 방직용 섬유사(제5906호)', '(2) 제50류부터 제55류까지에 분류하는 단사ㆍ복합사(연합사)나 케이블사, 제5607호에 분류하는 끈ㆍ배의 밧줄(cordage)ㆍ로프ㆍ케이블과 제5808호의 브레이드(braid)와의 구별', '(제11부의 주 제3호 참조)', '제50류에서 제55류까지에는 모든 실류를 다 분류하지는 않는다. 실류는 그의 특성에 따라(측정방법, 광택이나 윤택가공 여부, 실의 가닥수) 실을 분류하는 제50류부터 제55류까지의 각 호에 분류하며 끈ㆍ배의 밧줄(cordage)ㆍ로프나 케이블은 제5607호에, 브레이드(braid)는 제5808호에 분류한다. 다음 표Ⅰ은 각각의 경우에 있어서의 정확한 분류를 표시한 것이다.', '표 I', '방직용 섬유의 실과 끈ㆍ배의 밧줄(cordage)ㆍ로프․케이블의 분류표', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_02.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_02.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_03.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_03.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '각주', '(*)  이 표의 여러 가지 섬유재료에 대한 규정은 제11부의 주 제2호의 규정에 따라 분류하는 혼합섬유에 대해서도 적용한다(제11부의 총설(I)(A) 참조).', '(**) 제5006호의 누에의 거트(gut), 제54류의 모노필라멘트와 꼬임이 없거나 1미터당 5회 미만 꼬임의 멀티필라멘트사나 제55류의 인조필라멘트의 토우(tow)는 어떤 경우에도 제5607호에 분류하지 않는다.', '(3) 소매용으로 된 실', '(제11부의 주 제4호 참조)', '제50류․제51류․제52류․제54류․제55류의 호 중 특정 호는 소매용으로 된 것을 분류한다. 이 호에 분류하기 위해서 실은 다음 표 II에서 제시한 기준에 부합하여야 한다.', '다만, 다음의 실은 소매용으로 된 실로 간주하지 않는다.', '(a) 견ㆍ견 웨이스트(waste)ㆍ면이나 인조섬유의 단사(어떤 포장이라도 상관없다)', '(b) 양모나 동물의 부드러운 털의 단사 중 표백ㆍ염색이나 날염한 것으로서 5,000데시텍스 이하의 것(어떤 포장이라도 상관없다)', '(c) 견ㆍ견 웨이스트(waste)의 복합사(연합사)나 케이블사로서 표백하지 않은 것(어떤 포장이라도 상관없다)', '(d) 면이나 인조섬유의 복합사(연합사)나 케이블사 중 표백하지 않은 것으로서 타래로 묶은 것', '(e) 견이나 견 웨이스트(waste)의 복합사(연합사)나 케이블사 중 표백ㆍ염색이나 날염한 것으로서 133 데시텍스 이하의 것', '(f) 여러 가지 방직용 섬유의 단사ㆍ복합사(연합사)나 케이블사로서 크로스릴(cross-reel) 모양의 타래로 감은 것(*)', '(g) 여러 가지 방직용 섬유의 단사․복합사(연합사)나 케이블사로서 실패(내부 지지물)[예: 콥(cop)․연사(撚絲)용 튜브․펀(pirn)․원추형 보빈(bobbin)이나 스핀들(spindle)]에 감겨있는 것이나 어떤 다른 방법으로 감겨 있는 것(예: 누에고치 모양으로 감은 자수직기용의 것으로서 자수직기에 사용되는 것, 원심식 방사기로 만든 케이크)(섬유공업에서의 그 용도가 표시되는 것)', '*', '*  *', '각주', '(*) 크로스릴(cross-reeling)은 실타래가 헝클어지는 것을 방지하기 위하여 실을 대각선 상태로 타래를 감는 방법으로서 보통 타래 염색을 할 때 사용하는 방법이다.', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_04.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_04.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '표 II', '소매용으로 된 실(위의 제외규정은 예외로 한다)', '&lt;a&gt; &lt;img alt="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_05.jpg" src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/kor/t01/kor_t01_hs11_05.jpg" style="width: 530px; margin: 0px;"/&gt; &lt;/a&gt;', '각주', '(*) 이 표의 여러 가지 섬유재료에 대한 규정은 제11부의 주 제2호의 규정에 의하여 분류하는 혼합섬유에 대해서도 적용한다(제11부의 총설 I(A) 참조).', '(**) 연속된 긴 실로서, 분리될 수 있게 작은 타래로 묶어 이 작은 여러 개의 타래를 합쳐서 끝 타래로 묶으며 일정한 곳을 묶은 하나 이상의 간사(dividing thread)를 절단하면 쉽게 작은 타래로 분리되는 것도 있다. 하나 이상의 간사가 서로 독립하면서 타래 사이를 통과한다. 때에 따라서 타래를 종이 밴드로 묶는 경우도 있다. 일련의 연속사로서 큰 타래를 감어 놓은 것으로서 간사를 가지고 있는 것도 있는데 간사에 의하여 균일한 중량의 작은 타래로 분리되는 것이 아니고 가공 중에(예: 염색) 헝클어지는 것을 단순히 방지하기 위한 목적으로 만든 경우에는 큰 타래(하나 이상의 간사에 의해 분리되는 여러 개의 작은 타래로 구성된 것)로 간주하지 않으며 또한 소매용 포장으로 된 것으로도 간주하지 않는다.', '(4) 재봉사(sewing thread)', '(제11부의 주 제5호 참조)', '제5204호ㆍ제5401호ㆍ제5508호에서 “재봉사(sewing thread)”는 다음의 요건에 해당하는 복합사(연합사)나 케이블사를 말한다.', '(a) 실패[예: 릴(reel)ㆍ튜브(tube)]에 감은 실로서 한개의 중량(실패의 중량을 포함한다)이 1,000g 이하의 것 ', '(b) 재봉사로 사용하는 드레스한 실 ', '(c) 최종 꼬임이 “Z” 인 실 ', '“드레스한 것(dressed)”이란 완성 가공처리를 한 것을 말한다. 이러한 처리는 예를 들면, 윤활 성질이나 열 저항력의 부여, 정전기 형성의 방지나 외관을 개선함으로써 방직용 섬유사를 재봉사로 사용하기에 용이하도록 한다. 이러한 처리는 실리콘ㆍ전분ㆍ왁스ㆍ파라핀 등을 기본 재료로 한 물질의 사용을 포함한다.', '재봉사의 길이는 일반적으로 실패에 감긴 상태로서 알 수 있다.', ' &amp;lt;img src="https://unipass.customs.go.kr/clip/namoedit/2021/12/31/wco/haesul2022/ko']</t>
   </si>
   <si>
     <t>['총설', '이 부에서는 비금속(卑金屬 : base metal)(화학적으로 순수한 것을 포함한다)과 그 제품을 분류한다. 이 부에 분류하지 않는 비금속(卑金屬)의 물품 목록은 본 해설의 끝부분에 다시 설명되어 있다. 또한 이 부에는 맥석(脈石 : gangue)으로부터 분리된 천연 상태의 금속과 구리 매트(matte), 니켈매트나 코발트매트를 포함한다. 그러나 아직 맥석 상태의 금속광과 천연금속을 제외한다(제2601호부터 제2617호까지).', '이 부의 주 제3호에 따라 이 표에 있어서 “비금속(卑金屬 : base metal)”은 철강․구리․니켈․알루미늄․납․아연․주석․텅스텐[볼프람(wolfram)]․몰리브덴․탄탈륨․마그네슘․코발트․비스무트․카드뮴․티타늄․지르코늄․안티모니․망간․베릴륨․크로뮴․게르마늄․바나듐․갈륨․하프늄․인듐․니오븀(콜럼븀)․레늄과 탈륨을 말한다. ', '제72류부터 제76류까지와 제78류부터 제81류까지의 각 류는 개개의 덩어리 모양의 비금속(卑金屬)과 봉(bars·rods)ㆍ선(線)ㆍ판(sheets)과 같은 이들 비금속(卑金屬)물품과 그 제품을 분류한다. 다만, 조성 금속의 성질에 관계없이 제82류, 제83류(이들 류에 분류하는 것은 특정 제품에 한정한다)에 분류하는 특정의 비금속(卑金屬)의 제품은 제외한다.', '(A) 비금속(卑金屬 : base metal)의 합금', '이 부의 주 제6호에 따라 문맥상 별도의 규정(예: 합금강의 경우에 있어서)이 있는 경우를 제외하고, 제72류부터 제76류까지와 제78류부터 제81류까지나 이 표의 다른 곳에서 정하고 있는 비금속(卑金屬 : base metal)에는 그 금속의 합금도 포함한다. 마찬가지로 제82류나 제83류 또는 다른 곳에서 정하고 있는 “비금속(卑金屬 : base metal)”에는 비금속(卑金屬)의 합금으로 분류하는 합금도 포함한다.', '제71류의 주 제5호와 이 부의 주 제5호에 따라 비금속(卑金屬) 합금은 다음과 같이 분류한다.', '(1) 귀금속을 함유하는 비금속(卑金屬) 합금', '금속(은, 금과 백금) 중 어느 하나도 합금의 중량비로 2% 미만인 경우에는 이들 합금은 비금속(卑金屬)으로 분류한다. 귀금속을 함유한 그 밖의 비금속(卑金屬) 합금은 제71류에 분류한다.', '(2) 비금속(卑金屬) 합금', '이들 합금은 중량비로 가장 많은 금속으로 분류하나, 다만, 합금철(ferro-alloy)(제7202호 해설 참조)와 구리의 모합금(母合金 : master alloy)(제7405호 해설 참조)은 제외한다.', '(3) 이 부의 비금속(卑金屬)과 비(非)금속(non-metal)이나 제2805호의 금속과의 합금', '이 부의 비금속(卑金屬)의 합계 총중량이 비금속(卑金屬)이 아닌 다른 원소의 합계 총중량 이상일 경우에는 이들 합금을 이 부의 비금속(卑金屬)합금으로 분류한다. 그렇지 않은 경우의 합금은 일반적으로 제3824호에 분류한다.', '(4) 금속가루의 혼합물을 소결(燒結)한 물품과 용융(溶融 : melting)에 의해 제조한 금속의 불균질한 혼합물[서멧(cermet)은 제외]과 금속간 화합물', '금속가루의 화합물을 소결(燒結)한 물품, 용융(溶融)에 의하여 제조한 금속의 불균질한 혼합물[서멧(cermet)은 제외한다]은 합금으로 취급한다. 후자의 혼합물에는 특히 금속 스크랩(scrap)을 용해하여 제조한 잉곳(ingot)으로서 여러 가지 성분을 함유한 것도 포함한다. ', '그러나 금속 가루의 혼합물로서 소결(燒結 : sinter)하지 않은 것은 이 부의 주 제7호에 따라 분류한다(두 가지 이상의 재료로 제조한 물품-아래 (B)항 참조). ', '두 가지 이상의 비금속(卑金屬)으로 이루어진 금속간 화합물도 합금으로 취급된다. 금속간화합물과 합금과의 기본적인 상이점은 금속간 화합물의 결정격자 중의 서로 다른 종류의 원자의 배열이 규칙적인 것에 반하여, 합금에 있어서는 불규칙하다는 것이다.', '(B) 비금속(卑金屬)의 제품', '부의 주 제7호에 따라 두 가지 이상의 비금속(卑金屬)을 재료로 한 제품은 함유량이 중량비로 각각 다른 금속보다 가장 많은 금속의 물품으로 분류한다. 단, 해당 류의 각 호에서 별도의 규정이 있는 경우는 제외한다(예: 구리로 만든 머리 부분을 가진 철강으로 만든 못은 구리가 주요 구성재료가 아니라 할지라도 제7415호에 분류한다). 또한 해석에 관한 일반통칙에 의하여 비금속(卑金屬)이 그들에게 본질적인 특성을 부여하고 있고 부분적으로 비금속(非金屬)재료를 사용한 물품에도 이 규정이 적용된다.', '이 규정을 적용하기 위해 함유금속의 성분비를 계산함에 있어서는, 아래 사항을 유의하여야 한다.', '(1) 여러 가지의 철과 강(鋼 : steel)은 동일금속으로 간주한다.', '(2) 합금은 그 합금을 분류하는 해당 금속으로 전부 구성되어 있는 것으로 간주한다(예: 놋쇠로 만든 부분품은 전부가 구리로 구성되어 있는 것으로 취급한다).', '(3) 제8113호의 서멧(cermet)은 단일의 비금속(卑金屬)으로 본다.', '(C) 제품의 부분품', '일반적으로 제품의 부분품으로 인정되는 것은 이 표에서 그 제품이 해당하는 호에 있는 부분품으로 분류한다.', '그러나 이 부의 주 제2호에서 정의한 범용성 부분품(parts of general use)이 따로 분리되어 제시하는 경우에는 제품의 부분품으로 보지 않고 이 부의 해당하는 호에 분류한다. 예를 들면, 중앙난방식 라디에이터(radiator)의 전용 볼트(bolt)와 자동차 전용 스프링(spring)의 경우에 적용된다. 볼트(bolt)는 제7318호의 볼트(bolt)로 분류하고 제7322호의 중앙난방식 보일러의 부분품으로 분류하지 않는다. 스프링은 제7320호의 스프링으로 분류하고 제8708호의 자동차용 부분품으로 분류하지 않는다.', '*', '*  *', '시계용 스프링은 이 부의 주 제2호나목에 따라 제외하고, 제9114호에 분류한다는 것을 유의해야 한다.', '이 부의 주 제1호에 열거된 물품에 추가하여 다음 물품을 또한 제외한다.', '(a) 비금속(卑金屬)의 아말감(amalgam)(제2853호)', '(b) 비금속(卑金屬)의 콜로이드 상태의 부유물(colloidal suspension)(보통 제3003호나 제3004호)', '(c) 치과용 시멘트(cement)와 그 밖의 치과용 충전물(제3006호)', '(d) 감광성의 사진용 금속판. 예를 들면, 사진제판용(제3701호)', '(e) 제3707호의 사진용 섬광재료', '(f) 금속드리사(제5605호) ; 의류․실내용품이나 이와 유사한 물품에 사용하는 종류의 금속실(metal thread)이나 금속드리사로 된 직물(제5809호)', '(g) 제11부에 설명된 금속사로 만든 자수나 그 밖의 물품', '(h) 신발류 부분품(제6406호). 다만, 제64류의 주 제2호에 열거된 물품[특히 프로텍터(protector), 아이릿(eyelet), 훅(hook)과 버클(buckle)]은 제외한다.', '(ij) 주화(제7118호)', '(k) 일차전지ㆍ일차배터리와 축전지의 웨이스트(waste)와 스크랩(scrap) ; 수명이 끝난 일차전지ㆍ일차 배터리와 수명이 끝난 축전지(제8549호)', '(l) 와이어 브러시(wire brush)(제9603호)']</t>
@@ -417,10 +470,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,24 +759,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.85546875" customWidth="1"/>
-    <col min="5" max="5" width="92" customWidth="1"/>
-    <col min="6" max="6" width="65.140625" customWidth="1"/>
-    <col min="7" max="7" width="55.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,555 +792,620 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="I21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>95</v>
+      </c>
+      <c r="I22" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>